--- a/AAII_Financials/Yearly/BWMX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BWMX_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Yearly/BWMX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BWMX_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="92">
   <si>
     <t>BWMX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,38 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44199</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -705,9 +706,15 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -715,34 +722,40 @@
         <v>3</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2388400</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
+      <c r="E9" s="3">
+        <v>1112600</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -759,17 +772,23 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
+      <c r="E10" s="3">
+        <v>1275800</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -786,9 +805,15 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,8 +825,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -826,9 +853,15 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,9 +886,15 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -880,9 +919,15 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -907,9 +952,15 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,20 +969,22 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
       </c>
@@ -944,9 +997,15 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -971,9 +1030,15 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,8 +1050,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1011,75 +1078,93 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+        <v>19600</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+        <v>72400</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
+        <v>601500</v>
+      </c>
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1092,9 +1177,15 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1119,9 +1210,15 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,21 +1243,27 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1173,21 +1276,27 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1200,9 +1309,15 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,9 +1342,15 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1254,9 +1375,15 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1408,15 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,9 +1441,15 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1335,21 +1474,27 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1362,9 +1507,15 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,21 +1540,27 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1416,29 +1573,35 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44199</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1448,9 +1611,15 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1631,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,16 +1646,18 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>200</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
+      <c r="D41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="3">
+        <v>520800</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1501,9 +1674,15 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1528,71 +1707,89 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+        <v>516400</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>0</v>
+      <c r="D44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+        <v>520200</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>100</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
+      <c r="D45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="3">
+        <v>106400</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1609,17 +1806,23 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>300</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
+      <c r="D46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1747900</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1636,90 +1839,114 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>56600</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
+      <c r="D48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+        <v>396200</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
-      </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+        <v>657500</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1971,15 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,36 +2004,48 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+        <v>9700</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,17 +2070,23 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>56800</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
+      <c r="D54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2811400</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -1852,9 +2103,15 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +2123,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,16 +2138,18 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>500</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
+      <c r="D57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1220500</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -1905,71 +2166,89 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+        <v>84200</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>0</v>
+      <c r="D59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+        <v>409000</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>500</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
+      <c r="D60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1713700</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -1986,9 +2265,15 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -1996,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>355300</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2013,36 +2298,48 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+        <v>115300</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2364,15 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2397,15 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,17 +2430,23 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>500</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
+      <c r="D66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2184200</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2148,9 +2463,15 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2483,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2511,15 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,9 +2544,15 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2242,9 +2577,15 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,17 +2610,23 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>200</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="3">
+        <v>461200</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2296,9 +2643,15 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2676,15 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2709,15 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,36 +2742,48 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>56400</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,29 +2808,35 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44199</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2463,21 +2846,27 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,9 +2879,15 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,35 +2899,43 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+        <v>19600</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2960,15 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2993,15 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +3026,15 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +3059,15 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,18 +3092,24 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>825700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2692,9 +3125,15 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,35 +3145,43 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+        <v>-191300</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +3206,15 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,18 +3239,24 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-178100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-55700</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2813,9 +3272,15 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,8 +3292,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2853,9 +3320,15 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3353,15 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3386,15 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,18 +3419,24 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-340500</v>
+      </c>
+      <c r="E100" s="3">
         <v>56100</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
@@ -2961,9 +3452,15 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -2988,18 +3485,24 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3015,7 +3518,13 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BWMX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BWMX_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="92">
   <si>
     <t>BWMX</t>
   </si>
@@ -666,7 +666,7 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -689,13 +689,13 @@
         <v>44199</v>
       </c>
       <c r="E7" s="2">
-        <v>44012</v>
+        <v>43830</v>
       </c>
       <c r="F7" s="2">
-        <v>43646</v>
+        <v>43465</v>
       </c>
       <c r="G7" s="2">
-        <v>43281</v>
+        <v>43100</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
@@ -718,17 +718,17 @@
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>360300</v>
       </c>
       <c r="E8" s="3">
-        <v>2388400</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+        <v>153100</v>
+      </c>
+      <c r="F8" s="3">
+        <v>115000</v>
+      </c>
+      <c r="G8" s="3">
+        <v>71900</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -751,17 +751,17 @@
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>163300</v>
       </c>
       <c r="E9" s="3">
-        <v>1112600</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
+        <v>63600</v>
+      </c>
+      <c r="F9" s="3">
+        <v>47600</v>
+      </c>
+      <c r="G9" s="3">
+        <v>27700</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -784,17 +784,17 @@
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>197000</v>
       </c>
       <c r="E10" s="3">
-        <v>1275800</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
+        <v>89500</v>
+      </c>
+      <c r="F10" s="3">
+        <v>67400</v>
+      </c>
+      <c r="G10" s="3">
+        <v>44200</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -899,25 +899,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>1100</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -932,25 +932,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>900</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -976,17 +976,17 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>255000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>112800</v>
       </c>
       <c r="F17" s="3">
-        <v>700</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+        <v>87600</v>
+      </c>
+      <c r="G17" s="3">
+        <v>55500</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1009,17 +1009,17 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>105200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>40300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>27400</v>
+      </c>
+      <c r="G18" s="3">
+        <v>16400</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1057,17 +1057,17 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>-57500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G20" s="3">
+        <v>4600</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1091,16 +1091,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>19600</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+        <v>49900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>41100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>27900</v>
+      </c>
+      <c r="G21" s="3">
+        <v>22200</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1123,17 +1123,17 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>4000</v>
       </c>
       <c r="E22" s="3">
-        <v>72400</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+        <v>4200</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G22" s="3">
+        <v>5900</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1156,17 +1156,17 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>43700</v>
       </c>
       <c r="E23" s="3">
-        <v>601500</v>
+        <v>35000</v>
       </c>
       <c r="F23" s="3">
-        <v>200</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+        <v>22300</v>
+      </c>
+      <c r="G23" s="3">
+        <v>15100</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1190,25 +1190,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>26900</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>11500</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+        <v>4800</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1255,17 +1255,17 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>23400</v>
       </c>
       <c r="F26" s="3">
-        <v>200</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+        <v>14800</v>
+      </c>
+      <c r="G26" s="3">
+        <v>10300</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1288,17 +1288,17 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>23400</v>
       </c>
       <c r="F27" s="3">
-        <v>200</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+        <v>14800</v>
+      </c>
+      <c r="G27" s="3">
+        <v>10300</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1453,17 +1453,17 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>57500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>800</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-4600</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1486,17 +1486,17 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>23400</v>
       </c>
       <c r="F33" s="3">
-        <v>200</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+        <v>14800</v>
+      </c>
+      <c r="G33" s="3">
+        <v>10300</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1552,17 +1552,17 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>23400</v>
       </c>
       <c r="F35" s="3">
-        <v>200</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+        <v>14800</v>
+      </c>
+      <c r="G35" s="3">
+        <v>10300</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1594,13 +1594,13 @@
         <v>44199</v>
       </c>
       <c r="E38" s="2">
-        <v>44012</v>
+        <v>43830</v>
       </c>
       <c r="F38" s="2">
-        <v>43646</v>
+        <v>43465</v>
       </c>
       <c r="G38" s="2">
-        <v>43281</v>
+        <v>43100</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
@@ -1653,17 +1653,17 @@
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>3</v>
+      <c r="D41" s="3">
+        <v>32200</v>
       </c>
       <c r="E41" s="3">
-        <v>520800</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>10600</v>
+      </c>
+      <c r="F41" s="3">
+        <v>8800</v>
+      </c>
+      <c r="G41" s="3">
+        <v>11500</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1719,17 +1719,17 @@
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>40500</v>
       </c>
       <c r="E43" s="3">
-        <v>516400</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+        <v>12700</v>
+      </c>
+      <c r="F43" s="3">
+        <v>10900</v>
+      </c>
+      <c r="G43" s="3">
+        <v>8300</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1752,17 +1752,17 @@
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>3</v>
+      <c r="D44" s="3">
+        <v>63200</v>
       </c>
       <c r="E44" s="3">
-        <v>520200</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
+        <v>17100</v>
+      </c>
+      <c r="F44" s="3">
+        <v>15000</v>
+      </c>
+      <c r="G44" s="3">
+        <v>7000</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1785,17 +1785,17 @@
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>3</v>
+      <c r="D45" s="3">
+        <v>8200</v>
       </c>
       <c r="E45" s="3">
-        <v>106400</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+        <v>3300</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1000</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1818,17 +1818,17 @@
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>3</v>
+      <c r="D46" s="3">
+        <v>144200</v>
       </c>
       <c r="E46" s="3">
-        <v>1747900</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>43700</v>
+      </c>
+      <c r="F46" s="3">
+        <v>36200</v>
+      </c>
+      <c r="G46" s="3">
+        <v>27800</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1884,17 +1884,17 @@
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>3</v>
+      <c r="D48" s="3">
+        <v>40500</v>
       </c>
       <c r="E48" s="3">
-        <v>396200</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+        <v>11500</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G48" s="3">
+        <v>2800</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1917,17 +1917,17 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>3</v>
+      <c r="D49" s="3">
+        <v>33100</v>
       </c>
       <c r="E49" s="3">
-        <v>657500</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+        <v>32700</v>
+      </c>
+      <c r="F49" s="3">
+        <v>32800</v>
+      </c>
+      <c r="G49" s="3">
+        <v>32200</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2016,17 +2016,17 @@
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>1200</v>
       </c>
       <c r="E52" s="3">
-        <v>9700</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+        <v>900</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1100</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2082,17 +2082,17 @@
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>3</v>
+      <c r="D54" s="3">
+        <v>219000</v>
       </c>
       <c r="E54" s="3">
-        <v>2811400</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>88800</v>
+      </c>
+      <c r="F54" s="3">
+        <v>72300</v>
+      </c>
+      <c r="G54" s="3">
+        <v>63900</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2145,17 +2145,17 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>3</v>
+      <c r="D57" s="3">
+        <v>103100</v>
       </c>
       <c r="E57" s="3">
-        <v>1220500</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+        <v>26300</v>
+      </c>
+      <c r="F57" s="3">
+        <v>22100</v>
+      </c>
+      <c r="G57" s="3">
+        <v>10500</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2178,17 +2178,17 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>5600</v>
       </c>
       <c r="E58" s="3">
-        <v>84200</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+        <v>8100</v>
+      </c>
+      <c r="F58" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G58" s="3">
+        <v>2300</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2211,17 +2211,17 @@
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>3</v>
+      <c r="D59" s="3">
+        <v>33500</v>
       </c>
       <c r="E59" s="3">
-        <v>409000</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>9300</v>
+      </c>
+      <c r="F59" s="3">
+        <v>9900</v>
+      </c>
+      <c r="G59" s="3">
+        <v>8900</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,17 +2244,17 @@
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>3</v>
+      <c r="D60" s="3">
+        <v>142300</v>
       </c>
       <c r="E60" s="3">
-        <v>1713700</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>43600</v>
+      </c>
+      <c r="F60" s="3">
+        <v>36400</v>
+      </c>
+      <c r="G60" s="3">
+        <v>21700</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2278,16 +2278,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>26800</v>
       </c>
       <c r="E61" s="3">
-        <v>355300</v>
+        <v>26800</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>27900</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>29300</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2310,17 +2310,17 @@
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>3</v>
+      <c r="D62" s="3">
+        <v>4200</v>
       </c>
       <c r="E62" s="3">
-        <v>115300</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+        <v>4800</v>
+      </c>
+      <c r="F62" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G62" s="3">
+        <v>4000</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2442,17 +2442,17 @@
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>3</v>
+      <c r="D66" s="3">
+        <v>173300</v>
       </c>
       <c r="E66" s="3">
-        <v>2184200</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>75200</v>
+      </c>
+      <c r="F66" s="3">
+        <v>68300</v>
+      </c>
+      <c r="G66" s="3">
+        <v>55000</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2622,11 +2622,11 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>-13300</v>
       </c>
       <c r="E72" s="3">
-        <v>461200</v>
+        <v>10800</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2755,25 +2755,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>45700</v>
       </c>
       <c r="E76" s="3">
-        <v>0</v>
+        <v>13600</v>
       </c>
       <c r="F76" s="3">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3">
-        <v>0</v>
+        <v>8900</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2829,13 +2829,13 @@
         <v>44199</v>
       </c>
       <c r="E80" s="2">
-        <v>44012</v>
+        <v>43830</v>
       </c>
       <c r="F80" s="2">
-        <v>43646</v>
+        <v>43465</v>
       </c>
       <c r="G80" s="2">
-        <v>43281</v>
+        <v>43100</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
@@ -2858,17 +2858,17 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>23400</v>
       </c>
       <c r="F81" s="3">
-        <v>200</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+        <v>14800</v>
+      </c>
+      <c r="G81" s="3">
+        <v>10300</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2907,16 +2907,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>19600</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+        <v>2200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G83" s="3">
+        <v>1200</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -3105,16 +3105,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>825700</v>
+        <v>90400</v>
       </c>
       <c r="E89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+        <v>30000</v>
+      </c>
+      <c r="F89" s="3">
+        <v>16800</v>
+      </c>
+      <c r="G89" s="3">
+        <v>18500</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3153,16 +3153,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-191300</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+        <v>-30600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-1700</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3252,16 +3252,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-178100</v>
+        <v>-31300</v>
       </c>
       <c r="E94" s="3">
-        <v>-55700</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+        <v>-8700</v>
+      </c>
+      <c r="F94" s="3">
+        <v>700</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-1600</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3300,13 +3300,13 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-41200</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-17000</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-11700</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3432,16 +3432,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-340500</v>
+        <v>-37400</v>
       </c>
       <c r="E100" s="3">
-        <v>56100</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+        <v>-19500</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-15700</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3497,17 +3497,17 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>21600</v>
       </c>
       <c r="E102" s="3">
-        <v>200</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+        <v>1800</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G102" s="3">
+        <v>1200</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/BWMX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BWMX_YR_FIN.xlsx
@@ -719,16 +719,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>360300</v>
+        <v>335100</v>
       </c>
       <c r="E8" s="3">
-        <v>153100</v>
+        <v>142400</v>
       </c>
       <c r="F8" s="3">
-        <v>115000</v>
+        <v>106900</v>
       </c>
       <c r="G8" s="3">
-        <v>71900</v>
+        <v>66900</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -752,16 +752,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>163300</v>
+        <v>151900</v>
       </c>
       <c r="E9" s="3">
-        <v>63600</v>
+        <v>59100</v>
       </c>
       <c r="F9" s="3">
-        <v>47600</v>
+        <v>44200</v>
       </c>
       <c r="G9" s="3">
-        <v>27700</v>
+        <v>25800</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -785,16 +785,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>197000</v>
+        <v>183200</v>
       </c>
       <c r="E10" s="3">
-        <v>89500</v>
+        <v>83200</v>
       </c>
       <c r="F10" s="3">
-        <v>67400</v>
+        <v>62700</v>
       </c>
       <c r="G10" s="3">
-        <v>44200</v>
+        <v>41100</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -899,10 +899,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="E14" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -932,10 +932,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E15" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>255000</v>
+        <v>237200</v>
       </c>
       <c r="E17" s="3">
-        <v>112800</v>
+        <v>104900</v>
       </c>
       <c r="F17" s="3">
-        <v>87600</v>
+        <v>81500</v>
       </c>
       <c r="G17" s="3">
-        <v>55500</v>
+        <v>51600</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1010,16 +1010,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>105200</v>
+        <v>97900</v>
       </c>
       <c r="E18" s="3">
-        <v>40300</v>
+        <v>37500</v>
       </c>
       <c r="F18" s="3">
-        <v>27400</v>
+        <v>25500</v>
       </c>
       <c r="G18" s="3">
-        <v>16400</v>
+        <v>15300</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1058,16 +1058,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-57500</v>
+        <v>-53500</v>
       </c>
       <c r="E20" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="F20" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="G20" s="3">
-        <v>4600</v>
+        <v>4200</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1091,16 +1091,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>49900</v>
+        <v>46400</v>
       </c>
       <c r="E21" s="3">
-        <v>41100</v>
+        <v>38200</v>
       </c>
       <c r="F21" s="3">
-        <v>27900</v>
+        <v>25900</v>
       </c>
       <c r="G21" s="3">
-        <v>22200</v>
+        <v>20600</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1124,16 +1124,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F22" s="3">
         <v>4000</v>
       </c>
-      <c r="E22" s="3">
-        <v>4200</v>
-      </c>
-      <c r="F22" s="3">
-        <v>4300</v>
-      </c>
       <c r="G22" s="3">
-        <v>5900</v>
+        <v>5500</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>43700</v>
+        <v>40700</v>
       </c>
       <c r="E23" s="3">
-        <v>35000</v>
+        <v>32500</v>
       </c>
       <c r="F23" s="3">
-        <v>22300</v>
+        <v>20700</v>
       </c>
       <c r="G23" s="3">
-        <v>15100</v>
+        <v>14100</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1190,16 +1190,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>26900</v>
+        <v>25000</v>
       </c>
       <c r="E24" s="3">
-        <v>11500</v>
+        <v>10700</v>
       </c>
       <c r="F24" s="3">
-        <v>7500</v>
+        <v>6900</v>
       </c>
       <c r="G24" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1256,16 +1256,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>16800</v>
+        <v>15600</v>
       </c>
       <c r="E26" s="3">
-        <v>23400</v>
+        <v>21800</v>
       </c>
       <c r="F26" s="3">
-        <v>14800</v>
+        <v>13800</v>
       </c>
       <c r="G26" s="3">
-        <v>10300</v>
+        <v>9600</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1289,16 +1289,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>16800</v>
+        <v>15600</v>
       </c>
       <c r="E27" s="3">
-        <v>23400</v>
+        <v>21800</v>
       </c>
       <c r="F27" s="3">
-        <v>14800</v>
+        <v>13800</v>
       </c>
       <c r="G27" s="3">
-        <v>10300</v>
+        <v>9600</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1454,16 +1454,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>57500</v>
+        <v>53500</v>
       </c>
       <c r="E32" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F32" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G32" s="3">
-        <v>-4600</v>
+        <v>-4200</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1487,16 +1487,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>16800</v>
+        <v>15600</v>
       </c>
       <c r="E33" s="3">
-        <v>23400</v>
+        <v>21800</v>
       </c>
       <c r="F33" s="3">
-        <v>14800</v>
+        <v>13800</v>
       </c>
       <c r="G33" s="3">
-        <v>10300</v>
+        <v>9600</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1553,16 +1553,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>16800</v>
+        <v>15600</v>
       </c>
       <c r="E35" s="3">
-        <v>23400</v>
+        <v>21800</v>
       </c>
       <c r="F35" s="3">
-        <v>14800</v>
+        <v>13800</v>
       </c>
       <c r="G35" s="3">
-        <v>10300</v>
+        <v>9600</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1654,16 +1654,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>32200</v>
+        <v>30000</v>
       </c>
       <c r="E41" s="3">
-        <v>10600</v>
+        <v>9900</v>
       </c>
       <c r="F41" s="3">
-        <v>8800</v>
+        <v>8200</v>
       </c>
       <c r="G41" s="3">
-        <v>11500</v>
+        <v>10700</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1720,16 +1720,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>40500</v>
+        <v>37700</v>
       </c>
       <c r="E43" s="3">
-        <v>12700</v>
+        <v>11800</v>
       </c>
       <c r="F43" s="3">
-        <v>10900</v>
+        <v>10100</v>
       </c>
       <c r="G43" s="3">
-        <v>8300</v>
+        <v>7700</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1753,16 +1753,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>63200</v>
+        <v>58800</v>
       </c>
       <c r="E44" s="3">
-        <v>17100</v>
+        <v>15900</v>
       </c>
       <c r="F44" s="3">
-        <v>15000</v>
+        <v>13900</v>
       </c>
       <c r="G44" s="3">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1786,16 +1786,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8200</v>
+        <v>7700</v>
       </c>
       <c r="E45" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="F45" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="G45" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1819,16 +1819,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>144200</v>
+        <v>134100</v>
       </c>
       <c r="E46" s="3">
-        <v>43700</v>
+        <v>40600</v>
       </c>
       <c r="F46" s="3">
-        <v>36200</v>
+        <v>33700</v>
       </c>
       <c r="G46" s="3">
-        <v>27800</v>
+        <v>25800</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1885,16 +1885,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>40500</v>
+        <v>37700</v>
       </c>
       <c r="E48" s="3">
-        <v>11500</v>
+        <v>10700</v>
       </c>
       <c r="F48" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G48" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1918,16 +1918,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>33100</v>
+        <v>30800</v>
       </c>
       <c r="E49" s="3">
-        <v>32700</v>
+        <v>30400</v>
       </c>
       <c r="F49" s="3">
-        <v>32800</v>
+        <v>30500</v>
       </c>
       <c r="G49" s="3">
-        <v>32200</v>
+        <v>29900</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2017,16 +2017,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E52" s="3">
         <v>900</v>
       </c>
       <c r="F52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G52" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2083,16 +2083,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>219000</v>
+        <v>203700</v>
       </c>
       <c r="E54" s="3">
-        <v>88800</v>
+        <v>82600</v>
       </c>
       <c r="F54" s="3">
-        <v>72300</v>
+        <v>67300</v>
       </c>
       <c r="G54" s="3">
-        <v>63900</v>
+        <v>59400</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2146,16 +2146,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>103100</v>
+        <v>95900</v>
       </c>
       <c r="E57" s="3">
-        <v>26300</v>
+        <v>24400</v>
       </c>
       <c r="F57" s="3">
-        <v>22100</v>
+        <v>20500</v>
       </c>
       <c r="G57" s="3">
-        <v>10500</v>
+        <v>9700</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2179,16 +2179,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5600</v>
+        <v>5200</v>
       </c>
       <c r="E58" s="3">
-        <v>8100</v>
+        <v>7500</v>
       </c>
       <c r="F58" s="3">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="G58" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2212,16 +2212,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>33500</v>
+        <v>31200</v>
       </c>
       <c r="E59" s="3">
-        <v>9300</v>
+        <v>8600</v>
       </c>
       <c r="F59" s="3">
-        <v>9900</v>
+        <v>9200</v>
       </c>
       <c r="G59" s="3">
-        <v>8900</v>
+        <v>8300</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2245,16 +2245,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>142300</v>
+        <v>132300</v>
       </c>
       <c r="E60" s="3">
-        <v>43600</v>
+        <v>40500</v>
       </c>
       <c r="F60" s="3">
-        <v>36400</v>
+        <v>33900</v>
       </c>
       <c r="G60" s="3">
-        <v>21700</v>
+        <v>20200</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2278,16 +2278,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>26800</v>
+        <v>25000</v>
       </c>
       <c r="E61" s="3">
-        <v>26800</v>
+        <v>24900</v>
       </c>
       <c r="F61" s="3">
-        <v>27900</v>
+        <v>26000</v>
       </c>
       <c r="G61" s="3">
-        <v>29300</v>
+        <v>27300</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2311,16 +2311,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4200</v>
+        <v>3900</v>
       </c>
       <c r="E62" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="F62" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="G62" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2443,16 +2443,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>173300</v>
+        <v>161100</v>
       </c>
       <c r="E66" s="3">
-        <v>75200</v>
+        <v>69900</v>
       </c>
       <c r="F66" s="3">
-        <v>68300</v>
+        <v>63600</v>
       </c>
       <c r="G66" s="3">
-        <v>55000</v>
+        <v>51200</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2623,10 +2623,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-13300</v>
+        <v>-12400</v>
       </c>
       <c r="E72" s="3">
-        <v>10800</v>
+        <v>10100</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2755,16 +2755,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>45700</v>
+        <v>42500</v>
       </c>
       <c r="E76" s="3">
-        <v>13600</v>
+        <v>12700</v>
       </c>
       <c r="F76" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="G76" s="3">
-        <v>8900</v>
+        <v>8300</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2859,16 +2859,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>16800</v>
+        <v>15600</v>
       </c>
       <c r="E81" s="3">
-        <v>23400</v>
+        <v>21800</v>
       </c>
       <c r="F81" s="3">
-        <v>14800</v>
+        <v>13800</v>
       </c>
       <c r="G81" s="3">
-        <v>10300</v>
+        <v>9600</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2907,16 +2907,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="E83" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="F83" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G83" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -3105,16 +3105,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>90400</v>
+        <v>84100</v>
       </c>
       <c r="E89" s="3">
-        <v>30000</v>
+        <v>27900</v>
       </c>
       <c r="F89" s="3">
-        <v>16800</v>
+        <v>15600</v>
       </c>
       <c r="G89" s="3">
-        <v>18500</v>
+        <v>17200</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3153,16 +3153,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-30600</v>
+        <v>-28500</v>
       </c>
       <c r="E91" s="3">
-        <v>-9100</v>
+        <v>-8400</v>
       </c>
       <c r="F91" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="G91" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3252,16 +3252,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-31300</v>
+        <v>-29100</v>
       </c>
       <c r="E94" s="3">
-        <v>-8700</v>
+        <v>-8100</v>
       </c>
       <c r="F94" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G94" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3300,13 +3300,13 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-41200</v>
+        <v>-38300</v>
       </c>
       <c r="E96" s="3">
-        <v>-17000</v>
+        <v>-15800</v>
       </c>
       <c r="F96" s="3">
-        <v>-11700</v>
+        <v>-10900</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3432,16 +3432,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-37400</v>
+        <v>-34800</v>
       </c>
       <c r="E100" s="3">
-        <v>-19500</v>
+        <v>-18200</v>
       </c>
       <c r="F100" s="3">
-        <v>-20100</v>
+        <v>-18700</v>
       </c>
       <c r="G100" s="3">
-        <v>-15700</v>
+        <v>-14600</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3498,16 +3498,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>21600</v>
+        <v>20100</v>
       </c>
       <c r="E102" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="F102" s="3">
-        <v>-2700</v>
+        <v>-2500</v>
       </c>
       <c r="G102" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/BWMX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BWMX_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
   <si>
     <t>BWMX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,41 +665,42 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44199</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -712,26 +713,29 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>335100</v>
+        <v>480400</v>
       </c>
       <c r="E8" s="3">
-        <v>142400</v>
+        <v>347400</v>
       </c>
       <c r="F8" s="3">
-        <v>106900</v>
+        <v>147600</v>
       </c>
       <c r="G8" s="3">
-        <v>66900</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>110900</v>
+      </c>
+      <c r="H8" s="3">
+        <v>69400</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -739,32 +743,35 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>151900</v>
+        <v>210500</v>
       </c>
       <c r="E9" s="3">
-        <v>59100</v>
+        <v>157500</v>
       </c>
       <c r="F9" s="3">
-        <v>44200</v>
+        <v>61300</v>
       </c>
       <c r="G9" s="3">
-        <v>25800</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+        <v>45900</v>
+      </c>
+      <c r="H9" s="3">
+        <v>26700</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -778,26 +785,29 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>183200</v>
+        <v>269900</v>
       </c>
       <c r="E10" s="3">
-        <v>83200</v>
+        <v>189900</v>
       </c>
       <c r="F10" s="3">
-        <v>62700</v>
+        <v>86300</v>
       </c>
       <c r="G10" s="3">
-        <v>41100</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
+        <v>65000</v>
+      </c>
+      <c r="H10" s="3">
+        <v>42700</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -811,9 +821,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,8 +840,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -859,9 +873,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -892,20 +909,23 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>2700</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+        <v>2800</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1100</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -919,26 +939,29 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>800</v>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E15" s="3">
         <v>800</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
+      <c r="F15" s="3">
+        <v>900</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
@@ -952,15 +975,18 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -971,25 +997,26 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>237200</v>
+        <v>350400</v>
       </c>
       <c r="E17" s="3">
-        <v>104900</v>
+        <v>246000</v>
       </c>
       <c r="F17" s="3">
-        <v>81500</v>
+        <v>108700</v>
       </c>
       <c r="G17" s="3">
-        <v>51600</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+        <v>84500</v>
+      </c>
+      <c r="H17" s="3">
+        <v>53500</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1003,26 +1030,29 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>97900</v>
+        <v>130000</v>
       </c>
       <c r="E18" s="3">
-        <v>37500</v>
+        <v>101500</v>
       </c>
       <c r="F18" s="3">
-        <v>25500</v>
+        <v>38900</v>
       </c>
       <c r="G18" s="3">
-        <v>15300</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+        <v>26400</v>
+      </c>
+      <c r="H18" s="3">
+        <v>15800</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1036,9 +1066,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1052,25 +1085,26 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-53500</v>
+        <v>1700</v>
       </c>
       <c r="E20" s="3">
-        <v>-1000</v>
+        <v>-55500</v>
       </c>
       <c r="F20" s="3">
-        <v>-700</v>
+        <v>-1100</v>
       </c>
       <c r="G20" s="3">
-        <v>4200</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+        <v>-800</v>
+      </c>
+      <c r="H20" s="3">
+        <v>4400</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1084,26 +1118,29 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>46400</v>
+        <v>135700</v>
       </c>
       <c r="E21" s="3">
-        <v>38200</v>
+        <v>48100</v>
       </c>
       <c r="F21" s="3">
-        <v>25900</v>
+        <v>39700</v>
       </c>
       <c r="G21" s="3">
-        <v>20600</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>26900</v>
+      </c>
+      <c r="H21" s="3">
+        <v>21400</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1111,32 +1148,35 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
+      <c r="K21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L21" s="3">
         <v>0</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="E22" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="F22" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="G22" s="3">
-        <v>5500</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+        <v>4100</v>
+      </c>
+      <c r="H22" s="3">
+        <v>5700</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1144,32 +1184,35 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>40700</v>
+        <v>128200</v>
       </c>
       <c r="E23" s="3">
-        <v>32500</v>
+        <v>42200</v>
       </c>
       <c r="F23" s="3">
-        <v>20700</v>
+        <v>33700</v>
       </c>
       <c r="G23" s="3">
-        <v>14100</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+        <v>21500</v>
+      </c>
+      <c r="H23" s="3">
+        <v>14600</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1183,26 +1226,29 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>25000</v>
+        <v>40900</v>
       </c>
       <c r="E24" s="3">
-        <v>10700</v>
+        <v>26000</v>
       </c>
       <c r="F24" s="3">
-        <v>6900</v>
+        <v>11100</v>
       </c>
       <c r="G24" s="3">
-        <v>4500</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+        <v>7200</v>
+      </c>
+      <c r="H24" s="3">
+        <v>4600</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1210,15 +1256,18 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1249,26 +1298,29 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>15600</v>
+        <v>87200</v>
       </c>
       <c r="E26" s="3">
-        <v>21800</v>
+        <v>16200</v>
       </c>
       <c r="F26" s="3">
-        <v>13800</v>
+        <v>22600</v>
       </c>
       <c r="G26" s="3">
-        <v>9600</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+        <v>14300</v>
+      </c>
+      <c r="H26" s="3">
+        <v>9900</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1282,26 +1334,29 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>15600</v>
+        <v>87400</v>
       </c>
       <c r="E27" s="3">
-        <v>21800</v>
+        <v>16200</v>
       </c>
       <c r="F27" s="3">
-        <v>13800</v>
+        <v>22600</v>
       </c>
       <c r="G27" s="3">
-        <v>9600</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+        <v>14300</v>
+      </c>
+      <c r="H27" s="3">
+        <v>9900</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1315,9 +1370,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1348,9 +1406,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1381,9 +1442,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1414,9 +1478,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1447,26 +1514,29 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>53500</v>
+        <v>-1700</v>
       </c>
       <c r="E32" s="3">
-        <v>1000</v>
+        <v>55500</v>
       </c>
       <c r="F32" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="G32" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+        <v>800</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-4400</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1480,26 +1550,29 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>15600</v>
+        <v>87400</v>
       </c>
       <c r="E33" s="3">
-        <v>21800</v>
+        <v>16200</v>
       </c>
       <c r="F33" s="3">
-        <v>13800</v>
+        <v>22600</v>
       </c>
       <c r="G33" s="3">
-        <v>9600</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+        <v>14300</v>
+      </c>
+      <c r="H33" s="3">
+        <v>9900</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1513,9 +1586,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1546,26 +1622,29 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>15600</v>
+        <v>87400</v>
       </c>
       <c r="E35" s="3">
-        <v>21800</v>
+        <v>16200</v>
       </c>
       <c r="F35" s="3">
-        <v>13800</v>
+        <v>22600</v>
       </c>
       <c r="G35" s="3">
-        <v>9600</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+        <v>14300</v>
+      </c>
+      <c r="H35" s="3">
+        <v>9900</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1579,32 +1658,35 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44199</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1617,9 +1699,12 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1633,8 +1718,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1648,25 +1734,26 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>30000</v>
+        <v>56200</v>
       </c>
       <c r="E41" s="3">
-        <v>9900</v>
+        <v>31100</v>
       </c>
       <c r="F41" s="3">
-        <v>8200</v>
+        <v>10200</v>
       </c>
       <c r="G41" s="3">
-        <v>10700</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>8500</v>
+      </c>
+      <c r="H41" s="3">
+        <v>11000</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1680,9 +1767,12 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1713,26 +1803,29 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>37700</v>
+        <v>40000</v>
       </c>
       <c r="E43" s="3">
-        <v>11800</v>
+        <v>39100</v>
       </c>
       <c r="F43" s="3">
-        <v>10100</v>
+        <v>12200</v>
       </c>
       <c r="G43" s="3">
-        <v>7700</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+        <v>10500</v>
+      </c>
+      <c r="H43" s="3">
+        <v>8000</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1740,32 +1833,35 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>58800</v>
+        <v>64100</v>
       </c>
       <c r="E44" s="3">
-        <v>15900</v>
+        <v>61000</v>
       </c>
       <c r="F44" s="3">
-        <v>13900</v>
+        <v>16500</v>
       </c>
       <c r="G44" s="3">
-        <v>6500</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
+        <v>14500</v>
+      </c>
+      <c r="H44" s="3">
+        <v>6800</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1773,33 +1869,36 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7700</v>
+        <v>9600</v>
       </c>
       <c r="E45" s="3">
-        <v>3100</v>
+        <v>8000</v>
       </c>
       <c r="F45" s="3">
-        <v>1400</v>
+        <v>3200</v>
       </c>
       <c r="G45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H45" s="3">
         <v>900</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1812,26 +1911,29 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>134100</v>
+        <v>170000</v>
       </c>
       <c r="E46" s="3">
-        <v>40600</v>
+        <v>139100</v>
       </c>
       <c r="F46" s="3">
-        <v>33700</v>
+        <v>42100</v>
       </c>
       <c r="G46" s="3">
-        <v>25800</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>34900</v>
+      </c>
+      <c r="H46" s="3">
+        <v>26800</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1845,59 +1947,65 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>0</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>37700</v>
+        <v>52000</v>
       </c>
       <c r="E48" s="3">
-        <v>10700</v>
+        <v>39000</v>
       </c>
       <c r="F48" s="3">
-        <v>2000</v>
+        <v>11100</v>
       </c>
       <c r="G48" s="3">
-        <v>2600</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+        <v>2100</v>
+      </c>
+      <c r="H48" s="3">
+        <v>2700</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1905,32 +2013,35 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>30800</v>
+        <v>35400</v>
       </c>
       <c r="E49" s="3">
-        <v>30400</v>
+        <v>32000</v>
       </c>
       <c r="F49" s="3">
-        <v>30500</v>
+        <v>31600</v>
       </c>
       <c r="G49" s="3">
-        <v>29900</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+        <v>31600</v>
+      </c>
+      <c r="H49" s="3">
+        <v>31100</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1938,15 +2049,18 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1977,9 +2091,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2010,42 +2127,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>200</v>
+      </c>
+      <c r="E52" s="3">
         <v>1100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>900</v>
       </c>
-      <c r="F52" s="3">
-        <v>1100</v>
-      </c>
       <c r="G52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H52" s="3">
         <v>1000</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2076,26 +2199,29 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>203700</v>
+        <v>257700</v>
       </c>
       <c r="E54" s="3">
-        <v>82600</v>
+        <v>211200</v>
       </c>
       <c r="F54" s="3">
-        <v>67300</v>
+        <v>85600</v>
       </c>
       <c r="G54" s="3">
-        <v>59400</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>69700</v>
+      </c>
+      <c r="H54" s="3">
+        <v>61600</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2109,9 +2235,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2125,8 +2254,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2140,25 +2270,26 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>95900</v>
+        <v>95000</v>
       </c>
       <c r="E57" s="3">
-        <v>24400</v>
+        <v>99500</v>
       </c>
       <c r="F57" s="3">
-        <v>20500</v>
+        <v>25300</v>
       </c>
       <c r="G57" s="3">
-        <v>9700</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+        <v>21300</v>
+      </c>
+      <c r="H57" s="3">
+        <v>10100</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2172,26 +2303,29 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5200</v>
+        <v>1600</v>
       </c>
       <c r="E58" s="3">
-        <v>7500</v>
+        <v>5400</v>
       </c>
       <c r="F58" s="3">
-        <v>4200</v>
+        <v>7800</v>
       </c>
       <c r="G58" s="3">
-        <v>2100</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+        <v>4300</v>
+      </c>
+      <c r="H58" s="3">
+        <v>2200</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2199,65 +2333,71 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>31200</v>
+        <v>21200</v>
       </c>
       <c r="E59" s="3">
+        <v>32300</v>
+      </c>
+      <c r="F59" s="3">
+        <v>8900</v>
+      </c>
+      <c r="G59" s="3">
+        <v>9500</v>
+      </c>
+      <c r="H59" s="3">
         <v>8600</v>
       </c>
-      <c r="F59" s="3">
-        <v>9200</v>
-      </c>
-      <c r="G59" s="3">
-        <v>8300</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>132300</v>
+        <v>117800</v>
       </c>
       <c r="E60" s="3">
-        <v>40500</v>
+        <v>137200</v>
       </c>
       <c r="F60" s="3">
-        <v>33900</v>
+        <v>42000</v>
       </c>
       <c r="G60" s="3">
-        <v>20200</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>35100</v>
+      </c>
+      <c r="H60" s="3">
+        <v>20900</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2271,26 +2411,29 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>25000</v>
+        <v>71500</v>
       </c>
       <c r="E61" s="3">
-        <v>24900</v>
+        <v>25900</v>
       </c>
       <c r="F61" s="3">
-        <v>26000</v>
+        <v>25800</v>
       </c>
       <c r="G61" s="3">
-        <v>27300</v>
+        <v>26900</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>28300</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2304,26 +2447,29 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3900</v>
+        <v>4800</v>
       </c>
       <c r="E62" s="3">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="F62" s="3">
-        <v>3700</v>
+        <v>4600</v>
       </c>
       <c r="G62" s="3">
-        <v>3700</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+        <v>3800</v>
+      </c>
+      <c r="H62" s="3">
+        <v>3800</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2331,15 +2477,18 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2370,9 +2519,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2403,9 +2555,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2436,26 +2591,29 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>161100</v>
+        <v>194800</v>
       </c>
       <c r="E66" s="3">
-        <v>69900</v>
+        <v>167100</v>
       </c>
       <c r="F66" s="3">
-        <v>63600</v>
+        <v>72500</v>
       </c>
       <c r="G66" s="3">
-        <v>51200</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>65900</v>
+      </c>
+      <c r="H66" s="3">
+        <v>53000</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2469,9 +2627,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2485,8 +2646,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2517,9 +2679,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2550,9 +2715,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2583,9 +2751,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2616,20 +2787,23 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-12400</v>
+      <c r="D72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E72" s="3">
-        <v>10100</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+        <v>-12800</v>
+      </c>
+      <c r="F72" s="3">
+        <v>10400</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2649,9 +2823,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2682,9 +2859,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2715,9 +2895,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2748,26 +2931,29 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>42500</v>
+        <v>62900</v>
       </c>
       <c r="E76" s="3">
-        <v>12700</v>
+        <v>44100</v>
       </c>
       <c r="F76" s="3">
-        <v>3700</v>
+        <v>13100</v>
       </c>
       <c r="G76" s="3">
-        <v>8300</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>3800</v>
+      </c>
+      <c r="H76" s="3">
+        <v>8600</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2781,9 +2967,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2814,32 +3003,35 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44199</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2852,26 +3044,29 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>15600</v>
+        <v>87400</v>
       </c>
       <c r="E81" s="3">
-        <v>21800</v>
+        <v>16200</v>
       </c>
       <c r="F81" s="3">
-        <v>13800</v>
+        <v>22600</v>
       </c>
       <c r="G81" s="3">
-        <v>9600</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+        <v>14300</v>
+      </c>
+      <c r="H81" s="3">
+        <v>9900</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2885,9 +3080,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2901,25 +3099,26 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2000</v>
+        <v>3900</v>
       </c>
       <c r="E83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F83" s="3">
         <v>1800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1200</v>
       </c>
-      <c r="G83" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+      <c r="H83" s="3">
+        <v>1200</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2927,15 +3126,18 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2966,9 +3168,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2999,9 +3204,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3032,9 +3240,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3065,9 +3276,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3098,26 +3312,29 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>84100</v>
+        <v>72800</v>
       </c>
       <c r="E89" s="3">
-        <v>27900</v>
+        <v>87200</v>
       </c>
       <c r="F89" s="3">
-        <v>15600</v>
+        <v>29000</v>
       </c>
       <c r="G89" s="3">
-        <v>17200</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+        <v>16200</v>
+      </c>
+      <c r="H89" s="3">
+        <v>17800</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3131,9 +3348,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3147,41 +3367,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-28500</v>
+        <v>-20200</v>
       </c>
       <c r="E91" s="3">
-        <v>-8400</v>
+        <v>-29600</v>
       </c>
       <c r="F91" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1600</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3212,9 +3436,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3245,27 +3472,30 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-29100</v>
+        <v>-18000</v>
       </c>
       <c r="E94" s="3">
-        <v>-8100</v>
+        <v>-30200</v>
       </c>
       <c r="F94" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="G94" s="3">
         <v>600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1500</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3278,9 +3508,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3294,22 +3527,23 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-38300</v>
+        <v>-67000</v>
       </c>
       <c r="E96" s="3">
-        <v>-15800</v>
+        <v>-39700</v>
       </c>
       <c r="F96" s="3">
-        <v>-10900</v>
+        <v>-16400</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-11300</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3326,9 +3560,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3359,9 +3596,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3392,9 +3632,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3425,26 +3668,29 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-34800</v>
+        <v>-29700</v>
       </c>
       <c r="E100" s="3">
-        <v>-18200</v>
+        <v>-36100</v>
       </c>
       <c r="F100" s="3">
-        <v>-18700</v>
+        <v>-18800</v>
       </c>
       <c r="G100" s="3">
-        <v>-14600</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+        <v>-19400</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-15100</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3458,9 +3704,12 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3491,26 +3740,29 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>20100</v>
+        <v>25100</v>
       </c>
       <c r="E102" s="3">
+        <v>20900</v>
+      </c>
+      <c r="F102" s="3">
         <v>1700</v>
       </c>
-      <c r="F102" s="3">
-        <v>-2500</v>
-      </c>
       <c r="G102" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+        <v>-2600</v>
+      </c>
+      <c r="H102" s="3">
+        <v>1200</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3524,7 +3776,10 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BWMX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BWMX_YR_FIN.xlsx
@@ -723,19 +723,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>480400</v>
+        <v>496000</v>
       </c>
       <c r="E8" s="3">
-        <v>347400</v>
+        <v>358700</v>
       </c>
       <c r="F8" s="3">
-        <v>147600</v>
+        <v>152400</v>
       </c>
       <c r="G8" s="3">
-        <v>110900</v>
+        <v>114400</v>
       </c>
       <c r="H8" s="3">
-        <v>69400</v>
+        <v>71600</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -759,19 +759,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>210500</v>
+        <v>217300</v>
       </c>
       <c r="E9" s="3">
-        <v>157500</v>
+        <v>162600</v>
       </c>
       <c r="F9" s="3">
-        <v>61300</v>
+        <v>63300</v>
       </c>
       <c r="G9" s="3">
-        <v>45900</v>
+        <v>47300</v>
       </c>
       <c r="H9" s="3">
-        <v>26700</v>
+        <v>27600</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -795,19 +795,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>269900</v>
+        <v>278600</v>
       </c>
       <c r="E10" s="3">
-        <v>189900</v>
+        <v>196100</v>
       </c>
       <c r="F10" s="3">
-        <v>86300</v>
+        <v>89100</v>
       </c>
       <c r="G10" s="3">
-        <v>65000</v>
+        <v>67100</v>
       </c>
       <c r="H10" s="3">
-        <v>42700</v>
+        <v>44000</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -958,7 +958,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F15" s="3">
         <v>900</v>
@@ -1004,19 +1004,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>350400</v>
+        <v>361800</v>
       </c>
       <c r="E17" s="3">
-        <v>246000</v>
+        <v>253900</v>
       </c>
       <c r="F17" s="3">
-        <v>108700</v>
+        <v>112300</v>
       </c>
       <c r="G17" s="3">
-        <v>84500</v>
+        <v>87200</v>
       </c>
       <c r="H17" s="3">
-        <v>53500</v>
+        <v>55300</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1040,19 +1040,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>130000</v>
+        <v>134200</v>
       </c>
       <c r="E18" s="3">
-        <v>101500</v>
+        <v>104700</v>
       </c>
       <c r="F18" s="3">
-        <v>38900</v>
+        <v>40100</v>
       </c>
       <c r="G18" s="3">
-        <v>26400</v>
+        <v>27300</v>
       </c>
       <c r="H18" s="3">
-        <v>15800</v>
+        <v>16300</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1092,10 +1092,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="E20" s="3">
-        <v>-55500</v>
+        <v>-57300</v>
       </c>
       <c r="F20" s="3">
         <v>-1100</v>
@@ -1104,7 +1104,7 @@
         <v>-800</v>
       </c>
       <c r="H20" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1128,19 +1128,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>135700</v>
+        <v>140000</v>
       </c>
       <c r="E21" s="3">
-        <v>48100</v>
+        <v>49600</v>
       </c>
       <c r="F21" s="3">
-        <v>39700</v>
+        <v>40900</v>
       </c>
       <c r="G21" s="3">
-        <v>26900</v>
+        <v>27700</v>
       </c>
       <c r="H21" s="3">
-        <v>21400</v>
+        <v>22100</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1164,19 +1164,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="E22" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="F22" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="G22" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="H22" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1200,19 +1200,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>128200</v>
+        <v>132300</v>
       </c>
       <c r="E23" s="3">
-        <v>42200</v>
+        <v>43500</v>
       </c>
       <c r="F23" s="3">
-        <v>33700</v>
+        <v>34800</v>
       </c>
       <c r="G23" s="3">
-        <v>21500</v>
+        <v>22200</v>
       </c>
       <c r="H23" s="3">
-        <v>14600</v>
+        <v>15000</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1236,19 +1236,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>40900</v>
+        <v>42300</v>
       </c>
       <c r="E24" s="3">
-        <v>26000</v>
+        <v>26800</v>
       </c>
       <c r="F24" s="3">
-        <v>11100</v>
+        <v>11500</v>
       </c>
       <c r="G24" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="H24" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1308,19 +1308,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>87200</v>
+        <v>90100</v>
       </c>
       <c r="E26" s="3">
-        <v>16200</v>
+        <v>16700</v>
       </c>
       <c r="F26" s="3">
-        <v>22600</v>
+        <v>23300</v>
       </c>
       <c r="G26" s="3">
-        <v>14300</v>
+        <v>14800</v>
       </c>
       <c r="H26" s="3">
-        <v>9900</v>
+        <v>10300</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1344,19 +1344,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>87400</v>
+        <v>90200</v>
       </c>
       <c r="E27" s="3">
-        <v>16200</v>
+        <v>16700</v>
       </c>
       <c r="F27" s="3">
-        <v>22600</v>
+        <v>23300</v>
       </c>
       <c r="G27" s="3">
-        <v>14300</v>
+        <v>14800</v>
       </c>
       <c r="H27" s="3">
-        <v>9900</v>
+        <v>10300</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1524,10 +1524,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="E32" s="3">
-        <v>55500</v>
+        <v>57300</v>
       </c>
       <c r="F32" s="3">
         <v>1100</v>
@@ -1536,7 +1536,7 @@
         <v>800</v>
       </c>
       <c r="H32" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1560,19 +1560,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>87400</v>
+        <v>90200</v>
       </c>
       <c r="E33" s="3">
-        <v>16200</v>
+        <v>16700</v>
       </c>
       <c r="F33" s="3">
-        <v>22600</v>
+        <v>23300</v>
       </c>
       <c r="G33" s="3">
-        <v>14300</v>
+        <v>14800</v>
       </c>
       <c r="H33" s="3">
-        <v>9900</v>
+        <v>10300</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1632,19 +1632,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>87400</v>
+        <v>90200</v>
       </c>
       <c r="E35" s="3">
-        <v>16200</v>
+        <v>16700</v>
       </c>
       <c r="F35" s="3">
-        <v>22600</v>
+        <v>23300</v>
       </c>
       <c r="G35" s="3">
-        <v>14300</v>
+        <v>14800</v>
       </c>
       <c r="H35" s="3">
-        <v>9900</v>
+        <v>10300</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1741,19 +1741,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>56200</v>
+        <v>58100</v>
       </c>
       <c r="E41" s="3">
-        <v>31100</v>
+        <v>32100</v>
       </c>
       <c r="F41" s="3">
-        <v>10200</v>
+        <v>10600</v>
       </c>
       <c r="G41" s="3">
-        <v>8500</v>
+        <v>8800</v>
       </c>
       <c r="H41" s="3">
-        <v>11000</v>
+        <v>11400</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1813,19 +1813,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>40000</v>
+        <v>41300</v>
       </c>
       <c r="E43" s="3">
-        <v>39100</v>
+        <v>40300</v>
       </c>
       <c r="F43" s="3">
-        <v>12200</v>
+        <v>12600</v>
       </c>
       <c r="G43" s="3">
-        <v>10500</v>
+        <v>10900</v>
       </c>
       <c r="H43" s="3">
-        <v>8000</v>
+        <v>8300</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1849,19 +1849,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>64100</v>
+        <v>66200</v>
       </c>
       <c r="E44" s="3">
-        <v>61000</v>
+        <v>62900</v>
       </c>
       <c r="F44" s="3">
-        <v>16500</v>
+        <v>17100</v>
       </c>
       <c r="G44" s="3">
-        <v>14500</v>
+        <v>14900</v>
       </c>
       <c r="H44" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1885,19 +1885,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9600</v>
+        <v>9900</v>
       </c>
       <c r="E45" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="F45" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="G45" s="3">
         <v>1500</v>
       </c>
       <c r="H45" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1921,19 +1921,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>170000</v>
+        <v>175500</v>
       </c>
       <c r="E46" s="3">
-        <v>139100</v>
+        <v>143600</v>
       </c>
       <c r="F46" s="3">
-        <v>42100</v>
+        <v>43500</v>
       </c>
       <c r="G46" s="3">
-        <v>34900</v>
+        <v>36100</v>
       </c>
       <c r="H46" s="3">
-        <v>26800</v>
+        <v>27700</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1993,19 +1993,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>52000</v>
+        <v>53700</v>
       </c>
       <c r="E48" s="3">
-        <v>39000</v>
+        <v>40300</v>
       </c>
       <c r="F48" s="3">
-        <v>11100</v>
+        <v>11400</v>
       </c>
       <c r="G48" s="3">
         <v>2100</v>
       </c>
       <c r="H48" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2029,19 +2029,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>35400</v>
+        <v>36600</v>
       </c>
       <c r="E49" s="3">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="F49" s="3">
-        <v>31600</v>
+        <v>32600</v>
       </c>
       <c r="G49" s="3">
-        <v>31600</v>
+        <v>32600</v>
       </c>
       <c r="H49" s="3">
-        <v>31100</v>
+        <v>32100</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2140,7 +2140,7 @@
         <v>200</v>
       </c>
       <c r="E52" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F52" s="3">
         <v>900</v>
@@ -2149,7 +2149,7 @@
         <v>1200</v>
       </c>
       <c r="H52" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2209,19 +2209,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>257700</v>
+        <v>266000</v>
       </c>
       <c r="E54" s="3">
-        <v>211200</v>
+        <v>218000</v>
       </c>
       <c r="F54" s="3">
-        <v>85600</v>
+        <v>88400</v>
       </c>
       <c r="G54" s="3">
-        <v>69700</v>
+        <v>72000</v>
       </c>
       <c r="H54" s="3">
-        <v>61600</v>
+        <v>63600</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2277,19 +2277,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>95000</v>
+        <v>98100</v>
       </c>
       <c r="E57" s="3">
-        <v>99500</v>
+        <v>102700</v>
       </c>
       <c r="F57" s="3">
-        <v>25300</v>
+        <v>26100</v>
       </c>
       <c r="G57" s="3">
-        <v>21300</v>
+        <v>22000</v>
       </c>
       <c r="H57" s="3">
-        <v>10100</v>
+        <v>10400</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2313,19 +2313,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E58" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="F58" s="3">
-        <v>7800</v>
+        <v>8000</v>
       </c>
       <c r="G58" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="H58" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2349,19 +2349,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>21200</v>
+        <v>21900</v>
       </c>
       <c r="E59" s="3">
-        <v>32300</v>
+        <v>33400</v>
       </c>
       <c r="F59" s="3">
+        <v>9200</v>
+      </c>
+      <c r="G59" s="3">
+        <v>9800</v>
+      </c>
+      <c r="H59" s="3">
         <v>8900</v>
-      </c>
-      <c r="G59" s="3">
-        <v>9500</v>
-      </c>
-      <c r="H59" s="3">
-        <v>8600</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2385,19 +2385,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>117800</v>
+        <v>121700</v>
       </c>
       <c r="E60" s="3">
-        <v>137200</v>
+        <v>141600</v>
       </c>
       <c r="F60" s="3">
-        <v>42000</v>
+        <v>43400</v>
       </c>
       <c r="G60" s="3">
-        <v>35100</v>
+        <v>36300</v>
       </c>
       <c r="H60" s="3">
-        <v>20900</v>
+        <v>21600</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2421,19 +2421,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>71500</v>
+        <v>73800</v>
       </c>
       <c r="E61" s="3">
-        <v>25900</v>
+        <v>26700</v>
       </c>
       <c r="F61" s="3">
-        <v>25800</v>
+        <v>26700</v>
       </c>
       <c r="G61" s="3">
-        <v>26900</v>
+        <v>27800</v>
       </c>
       <c r="H61" s="3">
-        <v>28300</v>
+        <v>29200</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2457,19 +2457,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F62" s="3">
         <v>4800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>4000</v>
       </c>
-      <c r="F62" s="3">
-        <v>4600</v>
-      </c>
-      <c r="G62" s="3">
-        <v>3800</v>
-      </c>
       <c r="H62" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2601,19 +2601,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>194800</v>
+        <v>201100</v>
       </c>
       <c r="E66" s="3">
-        <v>167100</v>
+        <v>172500</v>
       </c>
       <c r="F66" s="3">
-        <v>72500</v>
+        <v>74900</v>
       </c>
       <c r="G66" s="3">
-        <v>65900</v>
+        <v>68000</v>
       </c>
       <c r="H66" s="3">
-        <v>53000</v>
+        <v>54800</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2800,10 +2800,10 @@
         <v>3</v>
       </c>
       <c r="E72" s="3">
-        <v>-12800</v>
+        <v>-13300</v>
       </c>
       <c r="F72" s="3">
-        <v>10400</v>
+        <v>10800</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2941,19 +2941,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>62900</v>
+        <v>64900</v>
       </c>
       <c r="E76" s="3">
-        <v>44100</v>
+        <v>45500</v>
       </c>
       <c r="F76" s="3">
-        <v>13100</v>
+        <v>13600</v>
       </c>
       <c r="G76" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="H76" s="3">
-        <v>8600</v>
+        <v>8800</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3054,19 +3054,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>87400</v>
+        <v>90200</v>
       </c>
       <c r="E81" s="3">
-        <v>16200</v>
+        <v>16700</v>
       </c>
       <c r="F81" s="3">
-        <v>22600</v>
+        <v>23300</v>
       </c>
       <c r="G81" s="3">
-        <v>14300</v>
+        <v>14800</v>
       </c>
       <c r="H81" s="3">
-        <v>9900</v>
+        <v>10300</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3106,16 +3106,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="E83" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F83" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="G83" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H83" s="3">
         <v>1200</v>
@@ -3322,19 +3322,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>72800</v>
+        <v>75200</v>
       </c>
       <c r="E89" s="3">
-        <v>87200</v>
+        <v>90000</v>
       </c>
       <c r="F89" s="3">
-        <v>29000</v>
+        <v>29900</v>
       </c>
       <c r="G89" s="3">
-        <v>16200</v>
+        <v>16700</v>
       </c>
       <c r="H89" s="3">
-        <v>17800</v>
+        <v>18400</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3374,19 +3374,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-20200</v>
+        <v>-20800</v>
       </c>
       <c r="E91" s="3">
-        <v>-29600</v>
+        <v>-30500</v>
       </c>
       <c r="F91" s="3">
-        <v>-8700</v>
+        <v>-9000</v>
       </c>
       <c r="G91" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="H91" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3482,19 +3482,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-18000</v>
+        <v>-18600</v>
       </c>
       <c r="E94" s="3">
-        <v>-30200</v>
+        <v>-31200</v>
       </c>
       <c r="F94" s="3">
-        <v>-8400</v>
+        <v>-8700</v>
       </c>
       <c r="G94" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3534,16 +3534,16 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-67000</v>
+        <v>-69200</v>
       </c>
       <c r="E96" s="3">
-        <v>-39700</v>
+        <v>-41000</v>
       </c>
       <c r="F96" s="3">
-        <v>-16400</v>
+        <v>-16900</v>
       </c>
       <c r="G96" s="3">
-        <v>-11300</v>
+        <v>-11600</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3678,19 +3678,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-29700</v>
+        <v>-30600</v>
       </c>
       <c r="E100" s="3">
-        <v>-36100</v>
+        <v>-37300</v>
       </c>
       <c r="F100" s="3">
-        <v>-18800</v>
+        <v>-19400</v>
       </c>
       <c r="G100" s="3">
-        <v>-19400</v>
+        <v>-20000</v>
       </c>
       <c r="H100" s="3">
-        <v>-15100</v>
+        <v>-15600</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3750,13 +3750,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>25100</v>
+        <v>26000</v>
       </c>
       <c r="E102" s="3">
-        <v>20900</v>
+        <v>21500</v>
       </c>
       <c r="F102" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="G102" s="3">
         <v>-2600</v>

--- a/AAII_Financials/Yearly/BWMX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BWMX_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
   <si>
     <t>BWMX</t>
   </si>
@@ -723,19 +723,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>496000</v>
+        <v>504200</v>
       </c>
       <c r="E8" s="3">
-        <v>358700</v>
+        <v>364600</v>
       </c>
       <c r="F8" s="3">
-        <v>152400</v>
+        <v>154900</v>
       </c>
       <c r="G8" s="3">
-        <v>114400</v>
+        <v>116300</v>
       </c>
       <c r="H8" s="3">
-        <v>71600</v>
+        <v>72800</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -759,19 +759,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>217300</v>
+        <v>220900</v>
       </c>
       <c r="E9" s="3">
-        <v>162600</v>
+        <v>165300</v>
       </c>
       <c r="F9" s="3">
-        <v>63300</v>
+        <v>64300</v>
       </c>
       <c r="G9" s="3">
-        <v>47300</v>
+        <v>48100</v>
       </c>
       <c r="H9" s="3">
-        <v>27600</v>
+        <v>28000</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -795,19 +795,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>278600</v>
+        <v>283300</v>
       </c>
       <c r="E10" s="3">
-        <v>196100</v>
+        <v>199300</v>
       </c>
       <c r="F10" s="3">
-        <v>89100</v>
+        <v>90600</v>
       </c>
       <c r="G10" s="3">
-        <v>67100</v>
+        <v>68200</v>
       </c>
       <c r="H10" s="3">
-        <v>44000</v>
+        <v>44800</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -918,11 +918,11 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>10000</v>
       </c>
       <c r="E14" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="F14" s="3">
         <v>1100</v>
@@ -954,8 +954,8 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>3000</v>
       </c>
       <c r="E15" s="3">
         <v>900</v>
@@ -1004,19 +1004,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>361800</v>
+        <v>370400</v>
       </c>
       <c r="E17" s="3">
-        <v>253900</v>
+        <v>258100</v>
       </c>
       <c r="F17" s="3">
-        <v>112300</v>
+        <v>114100</v>
       </c>
       <c r="G17" s="3">
-        <v>87200</v>
+        <v>88600</v>
       </c>
       <c r="H17" s="3">
-        <v>55300</v>
+        <v>56200</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1040,19 +1040,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>134200</v>
+        <v>133800</v>
       </c>
       <c r="E18" s="3">
-        <v>104700</v>
+        <v>106500</v>
       </c>
       <c r="F18" s="3">
-        <v>40100</v>
+        <v>40800</v>
       </c>
       <c r="G18" s="3">
-        <v>27300</v>
+        <v>27700</v>
       </c>
       <c r="H18" s="3">
-        <v>16300</v>
+        <v>16600</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1095,7 +1095,7 @@
         <v>1800</v>
       </c>
       <c r="E20" s="3">
-        <v>-57300</v>
+        <v>-58200</v>
       </c>
       <c r="F20" s="3">
         <v>-1100</v>
@@ -1104,7 +1104,7 @@
         <v>-800</v>
       </c>
       <c r="H20" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1128,19 +1128,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>140000</v>
+        <v>139800</v>
       </c>
       <c r="E21" s="3">
-        <v>49600</v>
+        <v>50500</v>
       </c>
       <c r="F21" s="3">
-        <v>40900</v>
+        <v>41600</v>
       </c>
       <c r="G21" s="3">
-        <v>27700</v>
+        <v>28200</v>
       </c>
       <c r="H21" s="3">
-        <v>22100</v>
+        <v>22500</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1164,19 +1164,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="E22" s="3">
         <v>4000</v>
       </c>
       <c r="F22" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="G22" s="3">
         <v>4300</v>
       </c>
       <c r="H22" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1200,19 +1200,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>132300</v>
+        <v>131800</v>
       </c>
       <c r="E23" s="3">
-        <v>43500</v>
+        <v>44300</v>
       </c>
       <c r="F23" s="3">
-        <v>34800</v>
+        <v>35400</v>
       </c>
       <c r="G23" s="3">
-        <v>22200</v>
+        <v>22600</v>
       </c>
       <c r="H23" s="3">
-        <v>15000</v>
+        <v>15300</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1236,19 +1236,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>42300</v>
+        <v>41400</v>
       </c>
       <c r="E24" s="3">
-        <v>26800</v>
+        <v>27300</v>
       </c>
       <c r="F24" s="3">
-        <v>11500</v>
+        <v>11700</v>
       </c>
       <c r="G24" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="H24" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1308,19 +1308,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>90100</v>
+        <v>90400</v>
       </c>
       <c r="E26" s="3">
-        <v>16700</v>
+        <v>17000</v>
       </c>
       <c r="F26" s="3">
-        <v>23300</v>
+        <v>23700</v>
       </c>
       <c r="G26" s="3">
-        <v>14800</v>
+        <v>15000</v>
       </c>
       <c r="H26" s="3">
-        <v>10300</v>
+        <v>10400</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1344,19 +1344,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>90200</v>
+        <v>90600</v>
       </c>
       <c r="E27" s="3">
-        <v>16700</v>
+        <v>17000</v>
       </c>
       <c r="F27" s="3">
-        <v>23300</v>
+        <v>23700</v>
       </c>
       <c r="G27" s="3">
-        <v>14800</v>
+        <v>15000</v>
       </c>
       <c r="H27" s="3">
-        <v>10300</v>
+        <v>10400</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1527,7 +1527,7 @@
         <v>-1800</v>
       </c>
       <c r="E32" s="3">
-        <v>57300</v>
+        <v>58200</v>
       </c>
       <c r="F32" s="3">
         <v>1100</v>
@@ -1536,7 +1536,7 @@
         <v>800</v>
       </c>
       <c r="H32" s="3">
-        <v>-4500</v>
+        <v>-4600</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1560,19 +1560,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>90200</v>
+        <v>90600</v>
       </c>
       <c r="E33" s="3">
-        <v>16700</v>
+        <v>17000</v>
       </c>
       <c r="F33" s="3">
-        <v>23300</v>
+        <v>23700</v>
       </c>
       <c r="G33" s="3">
-        <v>14800</v>
+        <v>15000</v>
       </c>
       <c r="H33" s="3">
-        <v>10300</v>
+        <v>10400</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1632,19 +1632,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>90200</v>
+        <v>90600</v>
       </c>
       <c r="E35" s="3">
-        <v>16700</v>
+        <v>17000</v>
       </c>
       <c r="F35" s="3">
-        <v>23300</v>
+        <v>23700</v>
       </c>
       <c r="G35" s="3">
-        <v>14800</v>
+        <v>15000</v>
       </c>
       <c r="H35" s="3">
-        <v>10300</v>
+        <v>10400</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1741,19 +1741,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>58100</v>
+        <v>59000</v>
       </c>
       <c r="E41" s="3">
-        <v>32100</v>
+        <v>32600</v>
       </c>
       <c r="F41" s="3">
-        <v>10600</v>
+        <v>10700</v>
       </c>
       <c r="G41" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="H41" s="3">
-        <v>11400</v>
+        <v>11600</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1813,19 +1813,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>41300</v>
+        <v>39300</v>
       </c>
       <c r="E43" s="3">
-        <v>40300</v>
+        <v>41000</v>
       </c>
       <c r="F43" s="3">
-        <v>12600</v>
+        <v>12800</v>
       </c>
       <c r="G43" s="3">
-        <v>10900</v>
+        <v>11000</v>
       </c>
       <c r="H43" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1849,19 +1849,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>66200</v>
+        <v>67300</v>
       </c>
       <c r="E44" s="3">
-        <v>62900</v>
+        <v>64000</v>
       </c>
       <c r="F44" s="3">
-        <v>17100</v>
+        <v>17400</v>
       </c>
       <c r="G44" s="3">
-        <v>14900</v>
+        <v>15200</v>
       </c>
       <c r="H44" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1885,10 +1885,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9900</v>
+        <v>8800</v>
       </c>
       <c r="E45" s="3">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="F45" s="3">
         <v>3300</v>
@@ -1921,19 +1921,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>175500</v>
+        <v>174400</v>
       </c>
       <c r="E46" s="3">
-        <v>143600</v>
+        <v>146000</v>
       </c>
       <c r="F46" s="3">
-        <v>43500</v>
+        <v>44200</v>
       </c>
       <c r="G46" s="3">
-        <v>36100</v>
+        <v>36700</v>
       </c>
       <c r="H46" s="3">
-        <v>27700</v>
+        <v>28100</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1993,19 +1993,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>53700</v>
+        <v>54600</v>
       </c>
       <c r="E48" s="3">
-        <v>40300</v>
+        <v>41000</v>
       </c>
       <c r="F48" s="3">
-        <v>11400</v>
+        <v>11600</v>
       </c>
       <c r="G48" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="H48" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2029,19 +2029,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>36600</v>
+        <v>37200</v>
       </c>
       <c r="E49" s="3">
-        <v>33000</v>
+        <v>33500</v>
       </c>
       <c r="F49" s="3">
+        <v>33100</v>
+      </c>
+      <c r="G49" s="3">
+        <v>33200</v>
+      </c>
+      <c r="H49" s="3">
         <v>32600</v>
-      </c>
-      <c r="G49" s="3">
-        <v>32600</v>
-      </c>
-      <c r="H49" s="3">
-        <v>32100</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2209,19 +2209,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>266000</v>
+        <v>266400</v>
       </c>
       <c r="E54" s="3">
-        <v>218000</v>
+        <v>221700</v>
       </c>
       <c r="F54" s="3">
-        <v>88400</v>
+        <v>89900</v>
       </c>
       <c r="G54" s="3">
-        <v>72000</v>
+        <v>73200</v>
       </c>
       <c r="H54" s="3">
-        <v>63600</v>
+        <v>64700</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2277,19 +2277,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>98100</v>
+        <v>99700</v>
       </c>
       <c r="E57" s="3">
-        <v>102700</v>
+        <v>104400</v>
       </c>
       <c r="F57" s="3">
-        <v>26100</v>
+        <v>26600</v>
       </c>
       <c r="G57" s="3">
-        <v>22000</v>
+        <v>22400</v>
       </c>
       <c r="H57" s="3">
-        <v>10400</v>
+        <v>10600</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2316,13 +2316,13 @@
         <v>1700</v>
       </c>
       <c r="E58" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="F58" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="G58" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="H58" s="3">
         <v>2300</v>
@@ -2349,19 +2349,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>21900</v>
+        <v>20200</v>
       </c>
       <c r="E59" s="3">
-        <v>33400</v>
+        <v>33900</v>
       </c>
       <c r="F59" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="G59" s="3">
-        <v>9800</v>
+        <v>10000</v>
       </c>
       <c r="H59" s="3">
-        <v>8900</v>
+        <v>9000</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2385,19 +2385,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>121700</v>
+        <v>121600</v>
       </c>
       <c r="E60" s="3">
-        <v>141600</v>
+        <v>144000</v>
       </c>
       <c r="F60" s="3">
-        <v>43400</v>
+        <v>44100</v>
       </c>
       <c r="G60" s="3">
-        <v>36300</v>
+        <v>36900</v>
       </c>
       <c r="H60" s="3">
-        <v>21600</v>
+        <v>22000</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2421,19 +2421,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>73800</v>
+        <v>75000</v>
       </c>
       <c r="E61" s="3">
-        <v>26700</v>
+        <v>27200</v>
       </c>
       <c r="F61" s="3">
-        <v>26700</v>
+        <v>27100</v>
       </c>
       <c r="G61" s="3">
-        <v>27800</v>
+        <v>28300</v>
       </c>
       <c r="H61" s="3">
-        <v>29200</v>
+        <v>29700</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2457,13 +2457,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F62" s="3">
         <v>4900</v>
-      </c>
-      <c r="E62" s="3">
-        <v>4100</v>
-      </c>
-      <c r="F62" s="3">
-        <v>4800</v>
       </c>
       <c r="G62" s="3">
         <v>4000</v>
@@ -2601,19 +2601,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>201100</v>
+        <v>201500</v>
       </c>
       <c r="E66" s="3">
-        <v>172500</v>
+        <v>175400</v>
       </c>
       <c r="F66" s="3">
-        <v>74900</v>
+        <v>76100</v>
       </c>
       <c r="G66" s="3">
-        <v>68000</v>
+        <v>69200</v>
       </c>
       <c r="H66" s="3">
-        <v>54800</v>
+        <v>55700</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2796,14 +2796,14 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>49700</v>
       </c>
       <c r="E72" s="3">
-        <v>-13300</v>
+        <v>-13500</v>
       </c>
       <c r="F72" s="3">
-        <v>10800</v>
+        <v>11000</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2944,16 +2944,16 @@
         <v>64900</v>
       </c>
       <c r="E76" s="3">
-        <v>45500</v>
+        <v>46300</v>
       </c>
       <c r="F76" s="3">
-        <v>13600</v>
+        <v>13800</v>
       </c>
       <c r="G76" s="3">
         <v>4000</v>
       </c>
       <c r="H76" s="3">
-        <v>8800</v>
+        <v>9000</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3054,19 +3054,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>90200</v>
+        <v>90600</v>
       </c>
       <c r="E81" s="3">
-        <v>16700</v>
+        <v>17000</v>
       </c>
       <c r="F81" s="3">
-        <v>23300</v>
+        <v>23700</v>
       </c>
       <c r="G81" s="3">
-        <v>14800</v>
+        <v>15000</v>
       </c>
       <c r="H81" s="3">
-        <v>10300</v>
+        <v>10400</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3106,7 +3106,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="E83" s="3">
         <v>2200</v>
@@ -3322,19 +3322,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>75200</v>
+        <v>73600</v>
       </c>
       <c r="E89" s="3">
-        <v>90000</v>
+        <v>91500</v>
       </c>
       <c r="F89" s="3">
-        <v>29900</v>
+        <v>30400</v>
       </c>
       <c r="G89" s="3">
-        <v>16700</v>
+        <v>17000</v>
       </c>
       <c r="H89" s="3">
-        <v>18400</v>
+        <v>18700</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3374,13 +3374,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-20800</v>
+        <v>-20200</v>
       </c>
       <c r="E91" s="3">
-        <v>-30500</v>
+        <v>-31000</v>
       </c>
       <c r="F91" s="3">
-        <v>-9000</v>
+        <v>-9200</v>
       </c>
       <c r="G91" s="3">
         <v>-1100</v>
@@ -3482,13 +3482,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-18600</v>
+        <v>-16100</v>
       </c>
       <c r="E94" s="3">
-        <v>-31200</v>
+        <v>-31700</v>
       </c>
       <c r="F94" s="3">
-        <v>-8700</v>
+        <v>-8800</v>
       </c>
       <c r="G94" s="3">
         <v>700</v>
@@ -3534,16 +3534,16 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-69200</v>
+        <v>-70300</v>
       </c>
       <c r="E96" s="3">
-        <v>-41000</v>
+        <v>-41700</v>
       </c>
       <c r="F96" s="3">
-        <v>-16900</v>
+        <v>-17200</v>
       </c>
       <c r="G96" s="3">
-        <v>-11600</v>
+        <v>-11800</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3678,19 +3678,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-30600</v>
+        <v>-31100</v>
       </c>
       <c r="E100" s="3">
-        <v>-37300</v>
+        <v>-37900</v>
       </c>
       <c r="F100" s="3">
-        <v>-19400</v>
+        <v>-19800</v>
       </c>
       <c r="G100" s="3">
-        <v>-20000</v>
+        <v>-20400</v>
       </c>
       <c r="H100" s="3">
-        <v>-15600</v>
+        <v>-15900</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3750,16 +3750,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>26000</v>
+        <v>26400</v>
       </c>
       <c r="E102" s="3">
-        <v>21500</v>
+        <v>21900</v>
       </c>
       <c r="F102" s="3">
         <v>1800</v>
       </c>
       <c r="G102" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="H102" s="3">
         <v>1200</v>

--- a/AAII_Financials/Yearly/BWMX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BWMX_YR_FIN.xlsx
@@ -723,19 +723,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>504200</v>
+        <v>520000</v>
       </c>
       <c r="E8" s="3">
-        <v>364600</v>
+        <v>376000</v>
       </c>
       <c r="F8" s="3">
-        <v>154900</v>
+        <v>159800</v>
       </c>
       <c r="G8" s="3">
-        <v>116300</v>
+        <v>120000</v>
       </c>
       <c r="H8" s="3">
-        <v>72800</v>
+        <v>75100</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -759,19 +759,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>220900</v>
+        <v>227800</v>
       </c>
       <c r="E9" s="3">
-        <v>165300</v>
+        <v>170400</v>
       </c>
       <c r="F9" s="3">
-        <v>64300</v>
+        <v>66300</v>
       </c>
       <c r="G9" s="3">
-        <v>48100</v>
+        <v>49600</v>
       </c>
       <c r="H9" s="3">
-        <v>28000</v>
+        <v>28900</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -795,19 +795,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>283300</v>
+        <v>292100</v>
       </c>
       <c r="E10" s="3">
-        <v>199300</v>
+        <v>205600</v>
       </c>
       <c r="F10" s="3">
-        <v>90600</v>
+        <v>93400</v>
       </c>
       <c r="G10" s="3">
-        <v>68200</v>
+        <v>70300</v>
       </c>
       <c r="H10" s="3">
-        <v>44800</v>
+        <v>46200</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -919,13 +919,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>10000</v>
+        <v>10300</v>
       </c>
       <c r="E14" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="F14" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -955,7 +955,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="E15" s="3">
         <v>900</v>
@@ -1004,19 +1004,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>370400</v>
+        <v>381900</v>
       </c>
       <c r="E17" s="3">
-        <v>258100</v>
+        <v>266200</v>
       </c>
       <c r="F17" s="3">
-        <v>114100</v>
+        <v>117700</v>
       </c>
       <c r="G17" s="3">
-        <v>88600</v>
+        <v>91400</v>
       </c>
       <c r="H17" s="3">
-        <v>56200</v>
+        <v>57900</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1040,19 +1040,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>133800</v>
+        <v>138000</v>
       </c>
       <c r="E18" s="3">
-        <v>106500</v>
+        <v>109800</v>
       </c>
       <c r="F18" s="3">
-        <v>40800</v>
+        <v>42100</v>
       </c>
       <c r="G18" s="3">
-        <v>27700</v>
+        <v>28600</v>
       </c>
       <c r="H18" s="3">
-        <v>16600</v>
+        <v>17100</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1092,10 +1092,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E20" s="3">
-        <v>-58200</v>
+        <v>-60000</v>
       </c>
       <c r="F20" s="3">
         <v>-1100</v>
@@ -1104,7 +1104,7 @@
         <v>-800</v>
       </c>
       <c r="H20" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1128,19 +1128,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>139800</v>
+        <v>144100</v>
       </c>
       <c r="E21" s="3">
-        <v>50500</v>
+        <v>52000</v>
       </c>
       <c r="F21" s="3">
-        <v>41600</v>
+        <v>42900</v>
       </c>
       <c r="G21" s="3">
-        <v>28200</v>
+        <v>29100</v>
       </c>
       <c r="H21" s="3">
-        <v>22500</v>
+        <v>23100</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1164,19 +1164,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="E22" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="F22" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="G22" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="H22" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1200,19 +1200,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>131800</v>
+        <v>136000</v>
       </c>
       <c r="E23" s="3">
-        <v>44300</v>
+        <v>45600</v>
       </c>
       <c r="F23" s="3">
-        <v>35400</v>
+        <v>36500</v>
       </c>
       <c r="G23" s="3">
-        <v>22600</v>
+        <v>23300</v>
       </c>
       <c r="H23" s="3">
-        <v>15300</v>
+        <v>15800</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1236,19 +1236,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>41400</v>
+        <v>42700</v>
       </c>
       <c r="E24" s="3">
-        <v>27300</v>
+        <v>28100</v>
       </c>
       <c r="F24" s="3">
-        <v>11700</v>
+        <v>12100</v>
       </c>
       <c r="G24" s="3">
-        <v>7500</v>
+        <v>7800</v>
       </c>
       <c r="H24" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1308,19 +1308,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>90400</v>
+        <v>93300</v>
       </c>
       <c r="E26" s="3">
-        <v>17000</v>
+        <v>17500</v>
       </c>
       <c r="F26" s="3">
-        <v>23700</v>
+        <v>24500</v>
       </c>
       <c r="G26" s="3">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="H26" s="3">
-        <v>10400</v>
+        <v>10800</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1344,19 +1344,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>90600</v>
+        <v>93500</v>
       </c>
       <c r="E27" s="3">
-        <v>17000</v>
+        <v>17500</v>
       </c>
       <c r="F27" s="3">
-        <v>23700</v>
+        <v>24500</v>
       </c>
       <c r="G27" s="3">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="H27" s="3">
-        <v>10400</v>
+        <v>10800</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1524,10 +1524,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="E32" s="3">
-        <v>58200</v>
+        <v>60000</v>
       </c>
       <c r="F32" s="3">
         <v>1100</v>
@@ -1536,7 +1536,7 @@
         <v>800</v>
       </c>
       <c r="H32" s="3">
-        <v>-4600</v>
+        <v>-4800</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1560,19 +1560,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>90600</v>
+        <v>93500</v>
       </c>
       <c r="E33" s="3">
-        <v>17000</v>
+        <v>17500</v>
       </c>
       <c r="F33" s="3">
-        <v>23700</v>
+        <v>24500</v>
       </c>
       <c r="G33" s="3">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="H33" s="3">
-        <v>10400</v>
+        <v>10800</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1632,19 +1632,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>90600</v>
+        <v>93500</v>
       </c>
       <c r="E35" s="3">
-        <v>17000</v>
+        <v>17500</v>
       </c>
       <c r="F35" s="3">
-        <v>23700</v>
+        <v>24500</v>
       </c>
       <c r="G35" s="3">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="H35" s="3">
-        <v>10400</v>
+        <v>10800</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1741,19 +1741,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>59000</v>
+        <v>60900</v>
       </c>
       <c r="E41" s="3">
-        <v>32600</v>
+        <v>33700</v>
       </c>
       <c r="F41" s="3">
-        <v>10700</v>
+        <v>11100</v>
       </c>
       <c r="G41" s="3">
-        <v>8900</v>
+        <v>9200</v>
       </c>
       <c r="H41" s="3">
-        <v>11600</v>
+        <v>12000</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1813,19 +1813,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>39300</v>
+        <v>40600</v>
       </c>
       <c r="E43" s="3">
-        <v>41000</v>
+        <v>42300</v>
       </c>
       <c r="F43" s="3">
-        <v>12800</v>
+        <v>13200</v>
       </c>
       <c r="G43" s="3">
-        <v>11000</v>
+        <v>11400</v>
       </c>
       <c r="H43" s="3">
-        <v>8400</v>
+        <v>8700</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1849,19 +1849,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>67300</v>
+        <v>69400</v>
       </c>
       <c r="E44" s="3">
-        <v>64000</v>
+        <v>66000</v>
       </c>
       <c r="F44" s="3">
-        <v>17400</v>
+        <v>17900</v>
       </c>
       <c r="G44" s="3">
-        <v>15200</v>
+        <v>15700</v>
       </c>
       <c r="H44" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1885,16 +1885,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8800</v>
+        <v>9000</v>
       </c>
       <c r="E45" s="3">
-        <v>8300</v>
+        <v>8600</v>
       </c>
       <c r="F45" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="G45" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H45" s="3">
         <v>1000</v>
@@ -1921,19 +1921,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>174400</v>
+        <v>179800</v>
       </c>
       <c r="E46" s="3">
-        <v>146000</v>
+        <v>150500</v>
       </c>
       <c r="F46" s="3">
-        <v>44200</v>
+        <v>45600</v>
       </c>
       <c r="G46" s="3">
-        <v>36700</v>
+        <v>37800</v>
       </c>
       <c r="H46" s="3">
-        <v>28100</v>
+        <v>29000</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1993,19 +1993,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>54600</v>
+        <v>56300</v>
       </c>
       <c r="E48" s="3">
-        <v>41000</v>
+        <v>42300</v>
       </c>
       <c r="F48" s="3">
-        <v>11600</v>
+        <v>12000</v>
       </c>
       <c r="G48" s="3">
         <v>2200</v>
       </c>
       <c r="H48" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2029,19 +2029,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>37200</v>
+        <v>38400</v>
       </c>
       <c r="E49" s="3">
-        <v>33500</v>
+        <v>34600</v>
       </c>
       <c r="F49" s="3">
-        <v>33100</v>
+        <v>34200</v>
       </c>
       <c r="G49" s="3">
-        <v>33200</v>
+        <v>34200</v>
       </c>
       <c r="H49" s="3">
-        <v>32600</v>
+        <v>33600</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2143,10 +2143,10 @@
         <v>1200</v>
       </c>
       <c r="F52" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G52" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H52" s="3">
         <v>1100</v>
@@ -2209,19 +2209,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>266400</v>
+        <v>274700</v>
       </c>
       <c r="E54" s="3">
-        <v>221700</v>
+        <v>228600</v>
       </c>
       <c r="F54" s="3">
-        <v>89900</v>
+        <v>92700</v>
       </c>
       <c r="G54" s="3">
-        <v>73200</v>
+        <v>75500</v>
       </c>
       <c r="H54" s="3">
-        <v>64700</v>
+        <v>66700</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2277,19 +2277,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>99700</v>
+        <v>102800</v>
       </c>
       <c r="E57" s="3">
-        <v>104400</v>
+        <v>107700</v>
       </c>
       <c r="F57" s="3">
-        <v>26600</v>
+        <v>27400</v>
       </c>
       <c r="G57" s="3">
-        <v>22400</v>
+        <v>23100</v>
       </c>
       <c r="H57" s="3">
-        <v>10600</v>
+        <v>10900</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2313,19 +2313,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="E58" s="3">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="F58" s="3">
-        <v>8200</v>
+        <v>8400</v>
       </c>
       <c r="G58" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="H58" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2349,19 +2349,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>20200</v>
+        <v>20800</v>
       </c>
       <c r="E59" s="3">
-        <v>33900</v>
+        <v>35000</v>
       </c>
       <c r="F59" s="3">
-        <v>9400</v>
+        <v>9700</v>
       </c>
       <c r="G59" s="3">
-        <v>10000</v>
+        <v>10300</v>
       </c>
       <c r="H59" s="3">
-        <v>9000</v>
+        <v>9300</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2385,19 +2385,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>121600</v>
+        <v>125400</v>
       </c>
       <c r="E60" s="3">
-        <v>144000</v>
+        <v>148500</v>
       </c>
       <c r="F60" s="3">
-        <v>44100</v>
+        <v>45500</v>
       </c>
       <c r="G60" s="3">
-        <v>36900</v>
+        <v>38000</v>
       </c>
       <c r="H60" s="3">
-        <v>22000</v>
+        <v>22600</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2421,19 +2421,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>75000</v>
+        <v>77400</v>
       </c>
       <c r="E61" s="3">
-        <v>27200</v>
+        <v>28000</v>
       </c>
       <c r="F61" s="3">
-        <v>27100</v>
+        <v>28000</v>
       </c>
       <c r="G61" s="3">
-        <v>28300</v>
+        <v>29100</v>
       </c>
       <c r="H61" s="3">
-        <v>29700</v>
+        <v>30600</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2457,19 +2457,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F62" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G62" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H62" s="3">
         <v>4200</v>
-      </c>
-      <c r="E62" s="3">
-        <v>4200</v>
-      </c>
-      <c r="F62" s="3">
-        <v>4900</v>
-      </c>
-      <c r="G62" s="3">
-        <v>4000</v>
-      </c>
-      <c r="H62" s="3">
-        <v>4000</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2601,19 +2601,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>201500</v>
+        <v>207800</v>
       </c>
       <c r="E66" s="3">
-        <v>175400</v>
+        <v>180800</v>
       </c>
       <c r="F66" s="3">
-        <v>76100</v>
+        <v>78500</v>
       </c>
       <c r="G66" s="3">
-        <v>69200</v>
+        <v>71300</v>
       </c>
       <c r="H66" s="3">
-        <v>55700</v>
+        <v>57400</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2797,13 +2797,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>49700</v>
+        <v>51300</v>
       </c>
       <c r="E72" s="3">
-        <v>-13500</v>
+        <v>-13900</v>
       </c>
       <c r="F72" s="3">
-        <v>11000</v>
+        <v>11300</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2941,19 +2941,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>64900</v>
+        <v>66900</v>
       </c>
       <c r="E76" s="3">
-        <v>46300</v>
+        <v>47700</v>
       </c>
       <c r="F76" s="3">
-        <v>13800</v>
+        <v>14200</v>
       </c>
       <c r="G76" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="H76" s="3">
-        <v>9000</v>
+        <v>9300</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3054,19 +3054,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>90600</v>
+        <v>93500</v>
       </c>
       <c r="E81" s="3">
-        <v>17000</v>
+        <v>17500</v>
       </c>
       <c r="F81" s="3">
-        <v>23700</v>
+        <v>24500</v>
       </c>
       <c r="G81" s="3">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="H81" s="3">
-        <v>10400</v>
+        <v>10800</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3106,19 +3106,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="E83" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="F83" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G83" s="3">
         <v>1300</v>
       </c>
       <c r="H83" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3322,19 +3322,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>73600</v>
+        <v>75900</v>
       </c>
       <c r="E89" s="3">
-        <v>91500</v>
+        <v>94400</v>
       </c>
       <c r="F89" s="3">
-        <v>30400</v>
+        <v>31400</v>
       </c>
       <c r="G89" s="3">
-        <v>17000</v>
+        <v>17500</v>
       </c>
       <c r="H89" s="3">
-        <v>18700</v>
+        <v>19300</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3374,13 +3374,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-20200</v>
+        <v>-20800</v>
       </c>
       <c r="E91" s="3">
-        <v>-31000</v>
+        <v>-32000</v>
       </c>
       <c r="F91" s="3">
-        <v>-9200</v>
+        <v>-9500</v>
       </c>
       <c r="G91" s="3">
         <v>-1100</v>
@@ -3482,13 +3482,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-16100</v>
+        <v>-16600</v>
       </c>
       <c r="E94" s="3">
-        <v>-31700</v>
+        <v>-32700</v>
       </c>
       <c r="F94" s="3">
-        <v>-8800</v>
+        <v>-9100</v>
       </c>
       <c r="G94" s="3">
         <v>700</v>
@@ -3534,16 +3534,16 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-70300</v>
+        <v>-72500</v>
       </c>
       <c r="E96" s="3">
-        <v>-41700</v>
+        <v>-43000</v>
       </c>
       <c r="F96" s="3">
-        <v>-17200</v>
+        <v>-17800</v>
       </c>
       <c r="G96" s="3">
-        <v>-11800</v>
+        <v>-12200</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3678,19 +3678,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-31100</v>
+        <v>-32100</v>
       </c>
       <c r="E100" s="3">
-        <v>-37900</v>
+        <v>-39100</v>
       </c>
       <c r="F100" s="3">
-        <v>-19800</v>
+        <v>-20400</v>
       </c>
       <c r="G100" s="3">
-        <v>-20400</v>
+        <v>-21000</v>
       </c>
       <c r="H100" s="3">
-        <v>-15900</v>
+        <v>-16400</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3750,19 +3750,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>26400</v>
+        <v>27200</v>
       </c>
       <c r="E102" s="3">
-        <v>21900</v>
+        <v>22600</v>
       </c>
       <c r="F102" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="G102" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="H102" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/BWMX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BWMX_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="92">
   <si>
     <t>BWMX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,45 +665,45 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44199</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -716,29 +716,32 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>520000</v>
+        <v>626800</v>
       </c>
       <c r="E8" s="3">
-        <v>376000</v>
+        <v>547300</v>
       </c>
       <c r="F8" s="3">
-        <v>159800</v>
+        <v>395800</v>
       </c>
       <c r="G8" s="3">
-        <v>120000</v>
+        <v>168100</v>
       </c>
       <c r="H8" s="3">
-        <v>75100</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+        <v>126300</v>
+      </c>
+      <c r="I8" s="3">
+        <v>79000</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -746,35 +749,38 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>227800</v>
+        <v>199600</v>
       </c>
       <c r="E9" s="3">
-        <v>170400</v>
+        <v>239800</v>
       </c>
       <c r="F9" s="3">
-        <v>66300</v>
+        <v>179400</v>
       </c>
       <c r="G9" s="3">
-        <v>49600</v>
+        <v>69800</v>
       </c>
       <c r="H9" s="3">
-        <v>28900</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+        <v>52200</v>
+      </c>
+      <c r="I9" s="3">
+        <v>30400</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -788,29 +794,32 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>292100</v>
+        <v>427300</v>
       </c>
       <c r="E10" s="3">
-        <v>205600</v>
+        <v>307500</v>
       </c>
       <c r="F10" s="3">
-        <v>93400</v>
+        <v>216400</v>
       </c>
       <c r="G10" s="3">
-        <v>70300</v>
+        <v>98300</v>
       </c>
       <c r="H10" s="3">
-        <v>46200</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+        <v>74000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>48600</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -824,9 +833,12 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,8 +853,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -876,9 +889,12 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -912,24 +928,27 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>10300</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>3000</v>
+        <v>10800</v>
       </c>
       <c r="F14" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G14" s="3">
         <v>1200</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -942,29 +961,32 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>3100</v>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>900</v>
+        <v>3300</v>
       </c>
       <c r="F15" s="3">
         <v>900</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
+      <c r="G15" s="3">
+        <v>1000</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -978,15 +1000,18 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -998,28 +1023,29 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>381900</v>
+        <v>524500</v>
       </c>
       <c r="E17" s="3">
-        <v>266200</v>
+        <v>402000</v>
       </c>
       <c r="F17" s="3">
-        <v>117700</v>
+        <v>280200</v>
       </c>
       <c r="G17" s="3">
-        <v>91400</v>
+        <v>123900</v>
       </c>
       <c r="H17" s="3">
-        <v>57900</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>96200</v>
+      </c>
+      <c r="I17" s="3">
+        <v>61000</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1033,29 +1059,32 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>138000</v>
+        <v>102300</v>
       </c>
       <c r="E18" s="3">
-        <v>109800</v>
+        <v>145300</v>
       </c>
       <c r="F18" s="3">
-        <v>42100</v>
+        <v>115600</v>
       </c>
       <c r="G18" s="3">
-        <v>28600</v>
+        <v>44300</v>
       </c>
       <c r="H18" s="3">
-        <v>17100</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>30100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>18000</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1069,9 +1098,12 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1086,28 +1118,29 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1900</v>
+        <v>-6500</v>
       </c>
       <c r="E20" s="3">
-        <v>-60000</v>
+        <v>2000</v>
       </c>
       <c r="F20" s="3">
-        <v>-1100</v>
+        <v>-63200</v>
       </c>
       <c r="G20" s="3">
-        <v>-800</v>
+        <v>-1200</v>
       </c>
       <c r="H20" s="3">
-        <v>4800</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+        <v>-900</v>
+      </c>
+      <c r="I20" s="3">
+        <v>5000</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1121,29 +1154,32 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>144100</v>
+        <v>115700</v>
       </c>
       <c r="E21" s="3">
-        <v>52000</v>
+        <v>151800</v>
       </c>
       <c r="F21" s="3">
-        <v>42900</v>
+        <v>54800</v>
       </c>
       <c r="G21" s="3">
-        <v>29100</v>
+        <v>45200</v>
       </c>
       <c r="H21" s="3">
-        <v>23100</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>30700</v>
+      </c>
+      <c r="I21" s="3">
+        <v>24400</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1151,35 +1187,38 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
+      <c r="L21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M21" s="3">
         <v>0</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3900</v>
+        <v>29600</v>
       </c>
       <c r="E22" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="F22" s="3">
         <v>4400</v>
       </c>
       <c r="G22" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="H22" s="3">
-        <v>6100</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+        <v>4700</v>
+      </c>
+      <c r="I22" s="3">
+        <v>6400</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1187,35 +1226,38 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>136000</v>
+        <v>66100</v>
       </c>
       <c r="E23" s="3">
-        <v>45600</v>
+        <v>143100</v>
       </c>
       <c r="F23" s="3">
-        <v>36500</v>
+        <v>48000</v>
       </c>
       <c r="G23" s="3">
-        <v>23300</v>
+        <v>38400</v>
       </c>
       <c r="H23" s="3">
-        <v>15800</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>24500</v>
+      </c>
+      <c r="I23" s="3">
+        <v>16600</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1229,29 +1271,32 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>42700</v>
+        <v>26200</v>
       </c>
       <c r="E24" s="3">
-        <v>28100</v>
+        <v>44900</v>
       </c>
       <c r="F24" s="3">
-        <v>12100</v>
+        <v>29600</v>
       </c>
       <c r="G24" s="3">
-        <v>7800</v>
+        <v>12700</v>
       </c>
       <c r="H24" s="3">
-        <v>5000</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+        <v>8200</v>
+      </c>
+      <c r="I24" s="3">
+        <v>5300</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1259,15 +1304,18 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1301,29 +1349,32 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>93300</v>
+        <v>39900</v>
       </c>
       <c r="E26" s="3">
-        <v>17500</v>
+        <v>98200</v>
       </c>
       <c r="F26" s="3">
-        <v>24500</v>
+        <v>18400</v>
       </c>
       <c r="G26" s="3">
-        <v>15500</v>
+        <v>25700</v>
       </c>
       <c r="H26" s="3">
-        <v>10800</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>16300</v>
+      </c>
+      <c r="I26" s="3">
+        <v>11300</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1337,29 +1388,32 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>93500</v>
+        <v>40100</v>
       </c>
       <c r="E27" s="3">
-        <v>17500</v>
+        <v>98400</v>
       </c>
       <c r="F27" s="3">
-        <v>24500</v>
+        <v>18400</v>
       </c>
       <c r="G27" s="3">
-        <v>15500</v>
+        <v>25700</v>
       </c>
       <c r="H27" s="3">
-        <v>10800</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>16300</v>
+      </c>
+      <c r="I27" s="3">
+        <v>11300</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1373,9 +1427,12 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1409,9 +1466,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1445,9 +1505,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1481,9 +1544,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1517,29 +1583,32 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1900</v>
+        <v>6500</v>
       </c>
       <c r="E32" s="3">
-        <v>60000</v>
+        <v>-2000</v>
       </c>
       <c r="F32" s="3">
-        <v>1100</v>
+        <v>63200</v>
       </c>
       <c r="G32" s="3">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="H32" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+        <v>900</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-5000</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1553,29 +1622,32 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>93500</v>
+        <v>40100</v>
       </c>
       <c r="E33" s="3">
-        <v>17500</v>
+        <v>98400</v>
       </c>
       <c r="F33" s="3">
-        <v>24500</v>
+        <v>18400</v>
       </c>
       <c r="G33" s="3">
-        <v>15500</v>
+        <v>25700</v>
       </c>
       <c r="H33" s="3">
-        <v>10800</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>16300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>11300</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1589,9 +1661,12 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1625,29 +1700,32 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>93500</v>
+        <v>40100</v>
       </c>
       <c r="E35" s="3">
-        <v>17500</v>
+        <v>98400</v>
       </c>
       <c r="F35" s="3">
-        <v>24500</v>
+        <v>18400</v>
       </c>
       <c r="G35" s="3">
-        <v>15500</v>
+        <v>25700</v>
       </c>
       <c r="H35" s="3">
-        <v>10800</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>16300</v>
+      </c>
+      <c r="I35" s="3">
+        <v>11300</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1661,35 +1739,38 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44199</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1702,9 +1783,12 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1719,8 +1803,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1735,28 +1820,29 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>60900</v>
+        <v>37400</v>
       </c>
       <c r="E41" s="3">
-        <v>33700</v>
+        <v>64100</v>
       </c>
       <c r="F41" s="3">
-        <v>11100</v>
+        <v>35400</v>
       </c>
       <c r="G41" s="3">
-        <v>9200</v>
+        <v>11600</v>
       </c>
       <c r="H41" s="3">
-        <v>12000</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>9700</v>
+      </c>
+      <c r="I41" s="3">
+        <v>12600</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1770,9 +1856,12 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1806,29 +1895,32 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>40600</v>
+        <v>54300</v>
       </c>
       <c r="E43" s="3">
-        <v>42300</v>
+        <v>42700</v>
       </c>
       <c r="F43" s="3">
-        <v>13200</v>
+        <v>44500</v>
       </c>
       <c r="G43" s="3">
-        <v>11400</v>
+        <v>13900</v>
       </c>
       <c r="H43" s="3">
-        <v>8700</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+        <v>12000</v>
+      </c>
+      <c r="I43" s="3">
+        <v>9100</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1836,35 +1928,38 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>115100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>73000</v>
+      </c>
+      <c r="F44" s="3">
         <v>69400</v>
       </c>
-      <c r="E44" s="3">
-        <v>66000</v>
-      </c>
-      <c r="F44" s="3">
-        <v>17900</v>
-      </c>
       <c r="G44" s="3">
-        <v>15700</v>
+        <v>18800</v>
       </c>
       <c r="H44" s="3">
-        <v>7300</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
+        <v>16500</v>
+      </c>
+      <c r="I44" s="3">
+        <v>7700</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1872,35 +1967,38 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9000</v>
+        <v>34600</v>
       </c>
       <c r="E45" s="3">
-        <v>8600</v>
+        <v>9500</v>
       </c>
       <c r="F45" s="3">
-        <v>3400</v>
+        <v>9100</v>
       </c>
       <c r="G45" s="3">
-        <v>1600</v>
+        <v>3600</v>
       </c>
       <c r="H45" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+        <v>1700</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1100</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1914,29 +2012,32 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>179800</v>
+        <v>241300</v>
       </c>
       <c r="E46" s="3">
-        <v>150500</v>
+        <v>189300</v>
       </c>
       <c r="F46" s="3">
-        <v>45600</v>
+        <v>158400</v>
       </c>
       <c r="G46" s="3">
-        <v>37800</v>
+        <v>48000</v>
       </c>
       <c r="H46" s="3">
-        <v>29000</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>39800</v>
+      </c>
+      <c r="I46" s="3">
+        <v>30500</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1950,17 +2051,20 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1977,38 +2081,41 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>56300</v>
+        <v>178100</v>
       </c>
       <c r="E48" s="3">
-        <v>42300</v>
+        <v>59200</v>
       </c>
       <c r="F48" s="3">
-        <v>12000</v>
+        <v>44500</v>
       </c>
       <c r="G48" s="3">
-        <v>2200</v>
+        <v>12600</v>
       </c>
       <c r="H48" s="3">
-        <v>3000</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+        <v>2300</v>
+      </c>
+      <c r="I48" s="3">
+        <v>3100</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2016,35 +2123,38 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>38400</v>
+        <v>177100</v>
       </c>
       <c r="E49" s="3">
-        <v>34600</v>
+        <v>40400</v>
       </c>
       <c r="F49" s="3">
-        <v>34200</v>
+        <v>36400</v>
       </c>
       <c r="G49" s="3">
-        <v>34200</v>
+        <v>35900</v>
       </c>
       <c r="H49" s="3">
-        <v>33600</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+        <v>36000</v>
+      </c>
+      <c r="I49" s="3">
+        <v>35400</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2052,15 +2162,18 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2094,9 +2207,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2130,45 +2246,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E52" s="3">
         <v>200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I52" s="3">
         <v>1200</v>
       </c>
-      <c r="F52" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2202,29 +2324,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>274700</v>
+        <v>620200</v>
       </c>
       <c r="E54" s="3">
-        <v>228600</v>
+        <v>289200</v>
       </c>
       <c r="F54" s="3">
-        <v>92700</v>
+        <v>240600</v>
       </c>
       <c r="G54" s="3">
-        <v>75500</v>
+        <v>97600</v>
       </c>
       <c r="H54" s="3">
-        <v>66700</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>79500</v>
+      </c>
+      <c r="I54" s="3">
+        <v>70200</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2238,9 +2363,12 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2255,8 +2383,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2271,28 +2400,29 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>102800</v>
+        <v>80100</v>
       </c>
       <c r="E57" s="3">
-        <v>107700</v>
+        <v>108200</v>
       </c>
       <c r="F57" s="3">
-        <v>27400</v>
+        <v>113300</v>
       </c>
       <c r="G57" s="3">
-        <v>23100</v>
+        <v>28900</v>
       </c>
       <c r="H57" s="3">
-        <v>10900</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+        <v>24300</v>
+      </c>
+      <c r="I57" s="3">
+        <v>11500</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2306,29 +2436,32 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1800</v>
+        <v>24100</v>
       </c>
       <c r="E58" s="3">
-        <v>5900</v>
+        <v>1900</v>
       </c>
       <c r="F58" s="3">
-        <v>8400</v>
+        <v>6200</v>
       </c>
       <c r="G58" s="3">
-        <v>4700</v>
+        <v>8800</v>
       </c>
       <c r="H58" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+        <v>4900</v>
+      </c>
+      <c r="I58" s="3">
+        <v>2500</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2336,35 +2469,38 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>20800</v>
+        <v>72800</v>
       </c>
       <c r="E59" s="3">
-        <v>35000</v>
+        <v>21900</v>
       </c>
       <c r="F59" s="3">
-        <v>9700</v>
+        <v>36800</v>
       </c>
       <c r="G59" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="H59" s="3">
-        <v>9300</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>10800</v>
+      </c>
+      <c r="I59" s="3">
+        <v>9800</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2372,35 +2508,38 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="L59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>125400</v>
+        <v>177000</v>
       </c>
       <c r="E60" s="3">
-        <v>148500</v>
+        <v>131900</v>
       </c>
       <c r="F60" s="3">
-        <v>45500</v>
+        <v>156300</v>
       </c>
       <c r="G60" s="3">
-        <v>38000</v>
+        <v>47900</v>
       </c>
       <c r="H60" s="3">
-        <v>22600</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+        <v>40000</v>
+      </c>
+      <c r="I60" s="3">
+        <v>23800</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2414,29 +2553,32 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>77400</v>
+        <v>327000</v>
       </c>
       <c r="E61" s="3">
-        <v>28000</v>
+        <v>81400</v>
       </c>
       <c r="F61" s="3">
-        <v>28000</v>
+        <v>29500</v>
       </c>
       <c r="G61" s="3">
-        <v>29100</v>
+        <v>29400</v>
       </c>
       <c r="H61" s="3">
-        <v>30600</v>
+        <v>30700</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>32200</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2450,29 +2592,32 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4300</v>
+        <v>58200</v>
       </c>
       <c r="E62" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="F62" s="3">
-        <v>5000</v>
+        <v>4600</v>
       </c>
       <c r="G62" s="3">
-        <v>4100</v>
+        <v>5300</v>
       </c>
       <c r="H62" s="3">
-        <v>4200</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+        <v>4400</v>
+      </c>
+      <c r="I62" s="3">
+        <v>4400</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2480,15 +2625,18 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2522,9 +2670,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2558,9 +2709,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2594,29 +2748,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>207800</v>
+        <v>562200</v>
       </c>
       <c r="E66" s="3">
-        <v>180800</v>
+        <v>218700</v>
       </c>
       <c r="F66" s="3">
-        <v>78500</v>
+        <v>190300</v>
       </c>
       <c r="G66" s="3">
-        <v>71300</v>
+        <v>82600</v>
       </c>
       <c r="H66" s="3">
-        <v>57400</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>75100</v>
+      </c>
+      <c r="I66" s="3">
+        <v>60400</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2630,9 +2787,12 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2647,8 +2807,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2682,9 +2843,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2718,9 +2882,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2754,9 +2921,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2790,23 +2960,26 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>51300</v>
+      <c r="D72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E72" s="3">
-        <v>-13900</v>
+        <v>54000</v>
       </c>
       <c r="F72" s="3">
-        <v>11300</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>-14600</v>
+      </c>
+      <c r="G72" s="3">
+        <v>11900</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2826,9 +2999,12 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2862,9 +3038,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2898,9 +3077,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2934,29 +3116,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>66900</v>
+        <v>58100</v>
       </c>
       <c r="E76" s="3">
-        <v>47700</v>
+        <v>70400</v>
       </c>
       <c r="F76" s="3">
-        <v>14200</v>
+        <v>50300</v>
       </c>
       <c r="G76" s="3">
-        <v>4200</v>
+        <v>15000</v>
       </c>
       <c r="H76" s="3">
-        <v>9300</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>4400</v>
+      </c>
+      <c r="I76" s="3">
+        <v>9700</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2970,9 +3155,12 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3006,35 +3194,38 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44199</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3047,29 +3238,32 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>93500</v>
+        <v>40100</v>
       </c>
       <c r="E81" s="3">
-        <v>17500</v>
+        <v>98400</v>
       </c>
       <c r="F81" s="3">
-        <v>24500</v>
+        <v>18400</v>
       </c>
       <c r="G81" s="3">
-        <v>15500</v>
+        <v>25700</v>
       </c>
       <c r="H81" s="3">
-        <v>10800</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>16300</v>
+      </c>
+      <c r="I81" s="3">
+        <v>11300</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3083,9 +3277,12 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3100,44 +3297,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4300</v>
+        <v>19500</v>
       </c>
       <c r="E83" s="3">
-        <v>2300</v>
+        <v>4500</v>
       </c>
       <c r="F83" s="3">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="G83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I83" s="3">
         <v>1300</v>
       </c>
-      <c r="H83" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3171,9 +3372,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3207,9 +3411,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3243,9 +3450,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3279,9 +3489,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3315,29 +3528,32 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>75900</v>
+        <v>69000</v>
       </c>
       <c r="E89" s="3">
-        <v>94400</v>
+        <v>79900</v>
       </c>
       <c r="F89" s="3">
-        <v>31400</v>
+        <v>99300</v>
       </c>
       <c r="G89" s="3">
-        <v>17500</v>
+        <v>33000</v>
       </c>
       <c r="H89" s="3">
-        <v>19300</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>18400</v>
+      </c>
+      <c r="I89" s="3">
+        <v>20300</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3351,9 +3567,12 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3368,28 +3587,29 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-20800</v>
+        <v>-9200</v>
       </c>
       <c r="E91" s="3">
-        <v>-32000</v>
+        <v>-21900</v>
       </c>
       <c r="F91" s="3">
-        <v>-9500</v>
+        <v>-33700</v>
       </c>
       <c r="G91" s="3">
-        <v>-1100</v>
+        <v>-10000</v>
       </c>
       <c r="H91" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+        <v>-1200</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-1800</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3397,15 +3617,18 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3439,9 +3662,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3475,29 +3701,32 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-16600</v>
+        <v>-262200</v>
       </c>
       <c r="E94" s="3">
-        <v>-32700</v>
+        <v>-17500</v>
       </c>
       <c r="F94" s="3">
-        <v>-9100</v>
+        <v>-34400</v>
       </c>
       <c r="G94" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="H94" s="3">
         <v>700</v>
       </c>
-      <c r="H94" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="I94" s="3">
+        <v>-1700</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3511,9 +3740,12 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3528,25 +3760,26 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-72500</v>
+        <v>-51800</v>
       </c>
       <c r="E96" s="3">
-        <v>-43000</v>
+        <v>-76300</v>
       </c>
       <c r="F96" s="3">
-        <v>-17800</v>
+        <v>-45200</v>
       </c>
       <c r="G96" s="3">
-        <v>-12200</v>
+        <v>-18700</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-12800</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3563,9 +3796,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3599,9 +3835,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3635,9 +3874,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3671,29 +3913,32 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-32100</v>
+        <v>166600</v>
       </c>
       <c r="E100" s="3">
-        <v>-39100</v>
+        <v>-33800</v>
       </c>
       <c r="F100" s="3">
-        <v>-20400</v>
+        <v>-41100</v>
       </c>
       <c r="G100" s="3">
-        <v>-21000</v>
+        <v>-21500</v>
       </c>
       <c r="H100" s="3">
-        <v>-16400</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+        <v>-22100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-17300</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3707,9 +3952,12 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3743,30 +3991,33 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>27200</v>
+        <v>-26700</v>
       </c>
       <c r="E102" s="3">
-        <v>22600</v>
+        <v>28600</v>
       </c>
       <c r="F102" s="3">
-        <v>1900</v>
+        <v>23800</v>
       </c>
       <c r="G102" s="3">
-        <v>-2800</v>
+        <v>2000</v>
       </c>
       <c r="H102" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I102" s="3">
         <v>1300</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3779,7 +4030,10 @@
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BWMX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BWMX_YR_FIN.xlsx
@@ -726,22 +726,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>626800</v>
+        <v>649600</v>
       </c>
       <c r="E8" s="3">
-        <v>547300</v>
+        <v>567100</v>
       </c>
       <c r="F8" s="3">
-        <v>395800</v>
+        <v>410100</v>
       </c>
       <c r="G8" s="3">
-        <v>168100</v>
+        <v>174300</v>
       </c>
       <c r="H8" s="3">
-        <v>126300</v>
+        <v>130900</v>
       </c>
       <c r="I8" s="3">
-        <v>79000</v>
+        <v>81900</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -765,22 +765,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>199600</v>
+        <v>206800</v>
       </c>
       <c r="E9" s="3">
-        <v>239800</v>
+        <v>248500</v>
       </c>
       <c r="F9" s="3">
-        <v>179400</v>
+        <v>185900</v>
       </c>
       <c r="G9" s="3">
-        <v>69800</v>
+        <v>72400</v>
       </c>
       <c r="H9" s="3">
-        <v>52200</v>
+        <v>54100</v>
       </c>
       <c r="I9" s="3">
-        <v>30400</v>
+        <v>31500</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -804,22 +804,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>427300</v>
+        <v>442800</v>
       </c>
       <c r="E10" s="3">
-        <v>307500</v>
+        <v>318600</v>
       </c>
       <c r="F10" s="3">
-        <v>216400</v>
+        <v>224200</v>
       </c>
       <c r="G10" s="3">
-        <v>98300</v>
+        <v>101900</v>
       </c>
       <c r="H10" s="3">
-        <v>74000</v>
+        <v>76700</v>
       </c>
       <c r="I10" s="3">
-        <v>48600</v>
+        <v>50400</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -941,13 +941,13 @@
         <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>10800</v>
+        <v>11200</v>
       </c>
       <c r="F14" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="G14" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="F15" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G15" s="3">
         <v>1000</v>
@@ -1030,22 +1030,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>524500</v>
+        <v>543600</v>
       </c>
       <c r="E17" s="3">
-        <v>402000</v>
+        <v>416600</v>
       </c>
       <c r="F17" s="3">
-        <v>280200</v>
+        <v>290400</v>
       </c>
       <c r="G17" s="3">
-        <v>123900</v>
+        <v>128400</v>
       </c>
       <c r="H17" s="3">
-        <v>96200</v>
+        <v>99700</v>
       </c>
       <c r="I17" s="3">
-        <v>61000</v>
+        <v>63200</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1069,22 +1069,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>102300</v>
+        <v>106000</v>
       </c>
       <c r="E18" s="3">
-        <v>145300</v>
+        <v>150500</v>
       </c>
       <c r="F18" s="3">
-        <v>115600</v>
+        <v>119800</v>
       </c>
       <c r="G18" s="3">
-        <v>44300</v>
+        <v>45900</v>
       </c>
       <c r="H18" s="3">
-        <v>30100</v>
+        <v>31200</v>
       </c>
       <c r="I18" s="3">
-        <v>18000</v>
+        <v>18700</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1125,13 +1125,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6500</v>
+        <v>-6800</v>
       </c>
       <c r="E20" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="F20" s="3">
-        <v>-63200</v>
+        <v>-65500</v>
       </c>
       <c r="G20" s="3">
         <v>-1200</v>
@@ -1140,7 +1140,7 @@
         <v>-900</v>
       </c>
       <c r="I20" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1164,22 +1164,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>115700</v>
+        <v>119600</v>
       </c>
       <c r="E21" s="3">
-        <v>151800</v>
+        <v>157300</v>
       </c>
       <c r="F21" s="3">
-        <v>54800</v>
+        <v>56800</v>
       </c>
       <c r="G21" s="3">
-        <v>45200</v>
+        <v>46800</v>
       </c>
       <c r="H21" s="3">
-        <v>30700</v>
+        <v>31700</v>
       </c>
       <c r="I21" s="3">
-        <v>24400</v>
+        <v>25300</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1203,22 +1203,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>29600</v>
+        <v>30700</v>
       </c>
       <c r="E22" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="F22" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="G22" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="H22" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="I22" s="3">
-        <v>6400</v>
+        <v>6700</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1242,22 +1242,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>66100</v>
+        <v>68500</v>
       </c>
       <c r="E23" s="3">
-        <v>143100</v>
+        <v>148300</v>
       </c>
       <c r="F23" s="3">
-        <v>48000</v>
+        <v>49800</v>
       </c>
       <c r="G23" s="3">
-        <v>38400</v>
+        <v>39800</v>
       </c>
       <c r="H23" s="3">
-        <v>24500</v>
+        <v>25400</v>
       </c>
       <c r="I23" s="3">
-        <v>16600</v>
+        <v>17200</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1281,22 +1281,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>26200</v>
+        <v>27200</v>
       </c>
       <c r="E24" s="3">
-        <v>44900</v>
+        <v>46600</v>
       </c>
       <c r="F24" s="3">
-        <v>29600</v>
+        <v>30700</v>
       </c>
       <c r="G24" s="3">
-        <v>12700</v>
+        <v>13100</v>
       </c>
       <c r="H24" s="3">
-        <v>8200</v>
+        <v>8500</v>
       </c>
       <c r="I24" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1359,22 +1359,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>39900</v>
+        <v>41400</v>
       </c>
       <c r="E26" s="3">
-        <v>98200</v>
+        <v>101700</v>
       </c>
       <c r="F26" s="3">
-        <v>18400</v>
+        <v>19100</v>
       </c>
       <c r="G26" s="3">
-        <v>25700</v>
+        <v>26700</v>
       </c>
       <c r="H26" s="3">
-        <v>16300</v>
+        <v>16900</v>
       </c>
       <c r="I26" s="3">
-        <v>11300</v>
+        <v>11700</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1398,22 +1398,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>40100</v>
+        <v>41500</v>
       </c>
       <c r="E27" s="3">
-        <v>98400</v>
+        <v>101900</v>
       </c>
       <c r="F27" s="3">
-        <v>18400</v>
+        <v>19100</v>
       </c>
       <c r="G27" s="3">
-        <v>25700</v>
+        <v>26700</v>
       </c>
       <c r="H27" s="3">
-        <v>16300</v>
+        <v>16900</v>
       </c>
       <c r="I27" s="3">
-        <v>11300</v>
+        <v>11700</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1593,13 +1593,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6500</v>
+        <v>6800</v>
       </c>
       <c r="E32" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="F32" s="3">
-        <v>63200</v>
+        <v>65500</v>
       </c>
       <c r="G32" s="3">
         <v>1200</v>
@@ -1608,7 +1608,7 @@
         <v>900</v>
       </c>
       <c r="I32" s="3">
-        <v>-5000</v>
+        <v>-5200</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1632,22 +1632,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>40100</v>
+        <v>41500</v>
       </c>
       <c r="E33" s="3">
-        <v>98400</v>
+        <v>101900</v>
       </c>
       <c r="F33" s="3">
-        <v>18400</v>
+        <v>19100</v>
       </c>
       <c r="G33" s="3">
-        <v>25700</v>
+        <v>26700</v>
       </c>
       <c r="H33" s="3">
-        <v>16300</v>
+        <v>16900</v>
       </c>
       <c r="I33" s="3">
-        <v>11300</v>
+        <v>11700</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1710,22 +1710,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>40100</v>
+        <v>41500</v>
       </c>
       <c r="E35" s="3">
-        <v>98400</v>
+        <v>101900</v>
       </c>
       <c r="F35" s="3">
-        <v>18400</v>
+        <v>19100</v>
       </c>
       <c r="G35" s="3">
-        <v>25700</v>
+        <v>26700</v>
       </c>
       <c r="H35" s="3">
-        <v>16300</v>
+        <v>16900</v>
       </c>
       <c r="I35" s="3">
-        <v>11300</v>
+        <v>11700</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1827,22 +1827,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>37400</v>
+        <v>38800</v>
       </c>
       <c r="E41" s="3">
-        <v>64100</v>
+        <v>66400</v>
       </c>
       <c r="F41" s="3">
-        <v>35400</v>
+        <v>36700</v>
       </c>
       <c r="G41" s="3">
-        <v>11600</v>
+        <v>12100</v>
       </c>
       <c r="H41" s="3">
-        <v>9700</v>
+        <v>10000</v>
       </c>
       <c r="I41" s="3">
-        <v>12600</v>
+        <v>13000</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1905,22 +1905,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>54300</v>
+        <v>56200</v>
       </c>
       <c r="E43" s="3">
-        <v>42700</v>
+        <v>44200</v>
       </c>
       <c r="F43" s="3">
-        <v>44500</v>
+        <v>46100</v>
       </c>
       <c r="G43" s="3">
-        <v>13900</v>
+        <v>14400</v>
       </c>
       <c r="H43" s="3">
-        <v>12000</v>
+        <v>12400</v>
       </c>
       <c r="I43" s="3">
-        <v>9100</v>
+        <v>9500</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1944,22 +1944,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>115100</v>
+        <v>119300</v>
       </c>
       <c r="E44" s="3">
-        <v>73000</v>
+        <v>75700</v>
       </c>
       <c r="F44" s="3">
-        <v>69400</v>
+        <v>72000</v>
       </c>
       <c r="G44" s="3">
-        <v>18800</v>
+        <v>19500</v>
       </c>
       <c r="H44" s="3">
-        <v>16500</v>
+        <v>17100</v>
       </c>
       <c r="I44" s="3">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1983,16 +1983,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>34600</v>
+        <v>35900</v>
       </c>
       <c r="E45" s="3">
-        <v>9500</v>
+        <v>9900</v>
       </c>
       <c r="F45" s="3">
-        <v>9100</v>
+        <v>9400</v>
       </c>
       <c r="G45" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="H45" s="3">
         <v>1700</v>
@@ -2022,22 +2022,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>241300</v>
+        <v>250100</v>
       </c>
       <c r="E46" s="3">
-        <v>189300</v>
+        <v>196100</v>
       </c>
       <c r="F46" s="3">
-        <v>158400</v>
+        <v>164200</v>
       </c>
       <c r="G46" s="3">
-        <v>48000</v>
+        <v>49800</v>
       </c>
       <c r="H46" s="3">
-        <v>39800</v>
+        <v>41200</v>
       </c>
       <c r="I46" s="3">
-        <v>30500</v>
+        <v>31600</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2100,22 +2100,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>178100</v>
+        <v>184500</v>
       </c>
       <c r="E48" s="3">
-        <v>59200</v>
+        <v>61400</v>
       </c>
       <c r="F48" s="3">
-        <v>44500</v>
+        <v>46100</v>
       </c>
       <c r="G48" s="3">
-        <v>12600</v>
+        <v>13100</v>
       </c>
       <c r="H48" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="I48" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2139,22 +2139,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>177100</v>
+        <v>183500</v>
       </c>
       <c r="E49" s="3">
-        <v>40400</v>
+        <v>41800</v>
       </c>
       <c r="F49" s="3">
-        <v>36400</v>
+        <v>37700</v>
       </c>
       <c r="G49" s="3">
-        <v>35900</v>
+        <v>37200</v>
       </c>
       <c r="H49" s="3">
-        <v>36000</v>
+        <v>37300</v>
       </c>
       <c r="I49" s="3">
-        <v>35400</v>
+        <v>36700</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2256,7 +2256,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>23700</v>
+        <v>24500</v>
       </c>
       <c r="E52" s="3">
         <v>200</v>
@@ -2268,7 +2268,7 @@
         <v>1000</v>
       </c>
       <c r="H52" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="I52" s="3">
         <v>1200</v>
@@ -2334,22 +2334,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>620200</v>
+        <v>642800</v>
       </c>
       <c r="E54" s="3">
-        <v>289200</v>
+        <v>299700</v>
       </c>
       <c r="F54" s="3">
-        <v>240600</v>
+        <v>249300</v>
       </c>
       <c r="G54" s="3">
-        <v>97600</v>
+        <v>101100</v>
       </c>
       <c r="H54" s="3">
-        <v>79500</v>
+        <v>82300</v>
       </c>
       <c r="I54" s="3">
-        <v>70200</v>
+        <v>72700</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2407,22 +2407,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>80100</v>
+        <v>83000</v>
       </c>
       <c r="E57" s="3">
-        <v>108200</v>
+        <v>112100</v>
       </c>
       <c r="F57" s="3">
-        <v>113300</v>
+        <v>117400</v>
       </c>
       <c r="G57" s="3">
-        <v>28900</v>
+        <v>29900</v>
       </c>
       <c r="H57" s="3">
-        <v>24300</v>
+        <v>25200</v>
       </c>
       <c r="I57" s="3">
-        <v>11500</v>
+        <v>11900</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2446,22 +2446,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>24100</v>
+        <v>25000</v>
       </c>
       <c r="E58" s="3">
         <v>1900</v>
       </c>
       <c r="F58" s="3">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="G58" s="3">
-        <v>8800</v>
+        <v>9200</v>
       </c>
       <c r="H58" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="I58" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2485,22 +2485,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>72800</v>
+        <v>75400</v>
       </c>
       <c r="E59" s="3">
-        <v>21900</v>
+        <v>22700</v>
       </c>
       <c r="F59" s="3">
-        <v>36800</v>
+        <v>38100</v>
       </c>
       <c r="G59" s="3">
+        <v>10500</v>
+      </c>
+      <c r="H59" s="3">
+        <v>11200</v>
+      </c>
+      <c r="I59" s="3">
         <v>10200</v>
-      </c>
-      <c r="H59" s="3">
-        <v>10800</v>
-      </c>
-      <c r="I59" s="3">
-        <v>9800</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2524,22 +2524,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>177000</v>
+        <v>183400</v>
       </c>
       <c r="E60" s="3">
-        <v>131900</v>
+        <v>136700</v>
       </c>
       <c r="F60" s="3">
-        <v>156300</v>
+        <v>162000</v>
       </c>
       <c r="G60" s="3">
-        <v>47900</v>
+        <v>49600</v>
       </c>
       <c r="H60" s="3">
-        <v>40000</v>
+        <v>41500</v>
       </c>
       <c r="I60" s="3">
-        <v>23800</v>
+        <v>24700</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2563,22 +2563,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>327000</v>
+        <v>338900</v>
       </c>
       <c r="E61" s="3">
-        <v>81400</v>
+        <v>84400</v>
       </c>
       <c r="F61" s="3">
-        <v>29500</v>
+        <v>30500</v>
       </c>
       <c r="G61" s="3">
-        <v>29400</v>
+        <v>30500</v>
       </c>
       <c r="H61" s="3">
-        <v>30700</v>
+        <v>31800</v>
       </c>
       <c r="I61" s="3">
-        <v>32200</v>
+        <v>33400</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2602,22 +2602,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>58200</v>
+        <v>60300</v>
       </c>
       <c r="E62" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F62" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H62" s="3">
         <v>4500</v>
       </c>
-      <c r="F62" s="3">
-        <v>4600</v>
-      </c>
-      <c r="G62" s="3">
-        <v>5300</v>
-      </c>
-      <c r="H62" s="3">
-        <v>4400</v>
-      </c>
       <c r="I62" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2758,22 +2758,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>562200</v>
+        <v>582600</v>
       </c>
       <c r="E66" s="3">
-        <v>218700</v>
+        <v>226600</v>
       </c>
       <c r="F66" s="3">
-        <v>190300</v>
+        <v>197300</v>
       </c>
       <c r="G66" s="3">
-        <v>82600</v>
+        <v>85600</v>
       </c>
       <c r="H66" s="3">
-        <v>75100</v>
+        <v>77800</v>
       </c>
       <c r="I66" s="3">
-        <v>60400</v>
+        <v>62600</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2973,13 +2973,13 @@
         <v>3</v>
       </c>
       <c r="E72" s="3">
-        <v>54000</v>
+        <v>55900</v>
       </c>
       <c r="F72" s="3">
-        <v>-14600</v>
+        <v>-15200</v>
       </c>
       <c r="G72" s="3">
-        <v>11900</v>
+        <v>12300</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -3126,22 +3126,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>58100</v>
+        <v>60200</v>
       </c>
       <c r="E76" s="3">
-        <v>70400</v>
+        <v>73000</v>
       </c>
       <c r="F76" s="3">
-        <v>50300</v>
+        <v>52100</v>
       </c>
       <c r="G76" s="3">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="H76" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="I76" s="3">
-        <v>9700</v>
+        <v>10100</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3248,22 +3248,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>40100</v>
+        <v>41500</v>
       </c>
       <c r="E81" s="3">
-        <v>98400</v>
+        <v>101900</v>
       </c>
       <c r="F81" s="3">
-        <v>18400</v>
+        <v>19100</v>
       </c>
       <c r="G81" s="3">
-        <v>25700</v>
+        <v>26700</v>
       </c>
       <c r="H81" s="3">
-        <v>16300</v>
+        <v>16900</v>
       </c>
       <c r="I81" s="3">
-        <v>11300</v>
+        <v>11700</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3304,22 +3304,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>19500</v>
+        <v>20200</v>
       </c>
       <c r="E83" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="F83" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="G83" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="H83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I83" s="3">
         <v>1400</v>
-      </c>
-      <c r="I83" s="3">
-        <v>1300</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3538,22 +3538,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>69000</v>
+        <v>71500</v>
       </c>
       <c r="E89" s="3">
-        <v>79900</v>
+        <v>82800</v>
       </c>
       <c r="F89" s="3">
-        <v>99300</v>
+        <v>102900</v>
       </c>
       <c r="G89" s="3">
-        <v>33000</v>
+        <v>34200</v>
       </c>
       <c r="H89" s="3">
-        <v>18400</v>
+        <v>19100</v>
       </c>
       <c r="I89" s="3">
-        <v>20300</v>
+        <v>21100</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3594,22 +3594,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9200</v>
+        <v>-9600</v>
       </c>
       <c r="E91" s="3">
-        <v>-21900</v>
+        <v>-22700</v>
       </c>
       <c r="F91" s="3">
-        <v>-33700</v>
+        <v>-34900</v>
       </c>
       <c r="G91" s="3">
-        <v>-10000</v>
+        <v>-10300</v>
       </c>
       <c r="H91" s="3">
         <v>-1200</v>
       </c>
       <c r="I91" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3711,22 +3711,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-262200</v>
+        <v>-271700</v>
       </c>
       <c r="E94" s="3">
-        <v>-17500</v>
+        <v>-18100</v>
       </c>
       <c r="F94" s="3">
-        <v>-34400</v>
+        <v>-35700</v>
       </c>
       <c r="G94" s="3">
-        <v>-9600</v>
+        <v>-9900</v>
       </c>
       <c r="H94" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I94" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3767,19 +3767,19 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-51800</v>
+        <v>-53600</v>
       </c>
       <c r="E96" s="3">
-        <v>-76300</v>
+        <v>-79100</v>
       </c>
       <c r="F96" s="3">
-        <v>-45200</v>
+        <v>-46900</v>
       </c>
       <c r="G96" s="3">
-        <v>-18700</v>
+        <v>-19400</v>
       </c>
       <c r="H96" s="3">
-        <v>-12800</v>
+        <v>-13300</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3923,22 +3923,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>166600</v>
+        <v>172600</v>
       </c>
       <c r="E100" s="3">
-        <v>-33800</v>
+        <v>-35000</v>
       </c>
       <c r="F100" s="3">
-        <v>-41100</v>
+        <v>-42600</v>
       </c>
       <c r="G100" s="3">
-        <v>-21500</v>
+        <v>-22200</v>
       </c>
       <c r="H100" s="3">
-        <v>-22100</v>
+        <v>-22900</v>
       </c>
       <c r="I100" s="3">
-        <v>-17300</v>
+        <v>-17900</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -4001,22 +4001,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-26700</v>
+        <v>-27600</v>
       </c>
       <c r="E102" s="3">
-        <v>28600</v>
+        <v>29700</v>
       </c>
       <c r="F102" s="3">
-        <v>23800</v>
+        <v>24600</v>
       </c>
       <c r="G102" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="H102" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="I102" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/BWMX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BWMX_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="92">
   <si>
     <t>BWMX</t>
   </si>
@@ -726,22 +726,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>649600</v>
+        <v>675800</v>
       </c>
       <c r="E8" s="3">
-        <v>567100</v>
+        <v>589600</v>
       </c>
       <c r="F8" s="3">
-        <v>410100</v>
+        <v>426400</v>
       </c>
       <c r="G8" s="3">
-        <v>174300</v>
+        <v>181200</v>
       </c>
       <c r="H8" s="3">
-        <v>130900</v>
+        <v>136100</v>
       </c>
       <c r="I8" s="3">
-        <v>81900</v>
+        <v>85100</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -765,22 +765,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>206800</v>
+        <v>210200</v>
       </c>
       <c r="E9" s="3">
-        <v>248500</v>
+        <v>258400</v>
       </c>
       <c r="F9" s="3">
-        <v>185900</v>
+        <v>193300</v>
       </c>
       <c r="G9" s="3">
-        <v>72400</v>
+        <v>75200</v>
       </c>
       <c r="H9" s="3">
-        <v>54100</v>
+        <v>56300</v>
       </c>
       <c r="I9" s="3">
-        <v>31500</v>
+        <v>32800</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -804,22 +804,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>442800</v>
+        <v>465600</v>
       </c>
       <c r="E10" s="3">
-        <v>318600</v>
+        <v>331300</v>
       </c>
       <c r="F10" s="3">
-        <v>224200</v>
+        <v>233100</v>
       </c>
       <c r="G10" s="3">
-        <v>101900</v>
+        <v>105900</v>
       </c>
       <c r="H10" s="3">
-        <v>76700</v>
+        <v>79800</v>
       </c>
       <c r="I10" s="3">
-        <v>50400</v>
+        <v>52400</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -937,14 +937,14 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>15800</v>
       </c>
       <c r="E14" s="3">
-        <v>11200</v>
+        <v>11700</v>
       </c>
       <c r="F14" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="G14" s="3">
         <v>1300</v>
@@ -976,17 +976,17 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>8700</v>
       </c>
       <c r="E15" s="3">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="F15" s="3">
         <v>1000</v>
       </c>
       <c r="G15" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -1030,22 +1030,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>543600</v>
+        <v>555400</v>
       </c>
       <c r="E17" s="3">
-        <v>416600</v>
+        <v>433100</v>
       </c>
       <c r="F17" s="3">
-        <v>290400</v>
+        <v>301900</v>
       </c>
       <c r="G17" s="3">
-        <v>128400</v>
+        <v>133500</v>
       </c>
       <c r="H17" s="3">
-        <v>99700</v>
+        <v>103700</v>
       </c>
       <c r="I17" s="3">
-        <v>63200</v>
+        <v>65700</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1069,22 +1069,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>106000</v>
+        <v>120400</v>
       </c>
       <c r="E18" s="3">
-        <v>150500</v>
+        <v>156500</v>
       </c>
       <c r="F18" s="3">
-        <v>119800</v>
+        <v>124500</v>
       </c>
       <c r="G18" s="3">
-        <v>45900</v>
+        <v>47700</v>
       </c>
       <c r="H18" s="3">
-        <v>31200</v>
+        <v>32400</v>
       </c>
       <c r="I18" s="3">
-        <v>18700</v>
+        <v>19400</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1125,22 +1125,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6800</v>
+        <v>-7100</v>
       </c>
       <c r="E20" s="3">
         <v>2100</v>
       </c>
       <c r="F20" s="3">
-        <v>-65500</v>
+        <v>-68100</v>
       </c>
       <c r="G20" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="H20" s="3">
         <v>-900</v>
       </c>
       <c r="I20" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1164,22 +1164,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>119600</v>
+        <v>130300</v>
       </c>
       <c r="E21" s="3">
-        <v>157300</v>
+        <v>163500</v>
       </c>
       <c r="F21" s="3">
-        <v>56800</v>
+        <v>59000</v>
       </c>
       <c r="G21" s="3">
-        <v>46800</v>
+        <v>48700</v>
       </c>
       <c r="H21" s="3">
-        <v>31700</v>
+        <v>33000</v>
       </c>
       <c r="I21" s="3">
-        <v>25300</v>
+        <v>26300</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1203,22 +1203,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>30700</v>
+        <v>31900</v>
       </c>
       <c r="E22" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="F22" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="G22" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="H22" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="I22" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1242,22 +1242,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>68500</v>
+        <v>81500</v>
       </c>
       <c r="E23" s="3">
-        <v>148300</v>
+        <v>154200</v>
       </c>
       <c r="F23" s="3">
-        <v>49800</v>
+        <v>51700</v>
       </c>
       <c r="G23" s="3">
-        <v>39800</v>
+        <v>41400</v>
       </c>
       <c r="H23" s="3">
-        <v>25400</v>
+        <v>26400</v>
       </c>
       <c r="I23" s="3">
-        <v>17200</v>
+        <v>17900</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1281,22 +1281,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>27200</v>
+        <v>30400</v>
       </c>
       <c r="E24" s="3">
-        <v>46600</v>
+        <v>48400</v>
       </c>
       <c r="F24" s="3">
-        <v>30700</v>
+        <v>31900</v>
       </c>
       <c r="G24" s="3">
-        <v>13100</v>
+        <v>13700</v>
       </c>
       <c r="H24" s="3">
-        <v>8500</v>
+        <v>8800</v>
       </c>
       <c r="I24" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1359,22 +1359,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>41400</v>
+        <v>51100</v>
       </c>
       <c r="E26" s="3">
-        <v>101700</v>
+        <v>105800</v>
       </c>
       <c r="F26" s="3">
-        <v>19100</v>
+        <v>19900</v>
       </c>
       <c r="G26" s="3">
-        <v>26700</v>
+        <v>27700</v>
       </c>
       <c r="H26" s="3">
-        <v>16900</v>
+        <v>17600</v>
       </c>
       <c r="I26" s="3">
-        <v>11700</v>
+        <v>12200</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1398,22 +1398,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>41500</v>
+        <v>51200</v>
       </c>
       <c r="E27" s="3">
-        <v>101900</v>
+        <v>106000</v>
       </c>
       <c r="F27" s="3">
-        <v>19100</v>
+        <v>19900</v>
       </c>
       <c r="G27" s="3">
-        <v>26700</v>
+        <v>27700</v>
       </c>
       <c r="H27" s="3">
-        <v>16900</v>
+        <v>17600</v>
       </c>
       <c r="I27" s="3">
-        <v>11700</v>
+        <v>12200</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1593,22 +1593,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6800</v>
+        <v>7100</v>
       </c>
       <c r="E32" s="3">
         <v>-2100</v>
       </c>
       <c r="F32" s="3">
-        <v>65500</v>
+        <v>68100</v>
       </c>
       <c r="G32" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H32" s="3">
         <v>900</v>
       </c>
       <c r="I32" s="3">
-        <v>-5200</v>
+        <v>-5400</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1632,22 +1632,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>41500</v>
+        <v>51200</v>
       </c>
       <c r="E33" s="3">
-        <v>101900</v>
+        <v>106000</v>
       </c>
       <c r="F33" s="3">
-        <v>19100</v>
+        <v>19900</v>
       </c>
       <c r="G33" s="3">
-        <v>26700</v>
+        <v>27700</v>
       </c>
       <c r="H33" s="3">
-        <v>16900</v>
+        <v>17600</v>
       </c>
       <c r="I33" s="3">
-        <v>11700</v>
+        <v>12200</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1710,22 +1710,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>41500</v>
+        <v>51200</v>
       </c>
       <c r="E35" s="3">
-        <v>101900</v>
+        <v>106000</v>
       </c>
       <c r="F35" s="3">
-        <v>19100</v>
+        <v>19900</v>
       </c>
       <c r="G35" s="3">
-        <v>26700</v>
+        <v>27700</v>
       </c>
       <c r="H35" s="3">
-        <v>16900</v>
+        <v>17600</v>
       </c>
       <c r="I35" s="3">
-        <v>11700</v>
+        <v>12200</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1827,22 +1827,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>38800</v>
+        <v>47900</v>
       </c>
       <c r="E41" s="3">
-        <v>66400</v>
+        <v>69000</v>
       </c>
       <c r="F41" s="3">
-        <v>36700</v>
+        <v>38200</v>
       </c>
       <c r="G41" s="3">
-        <v>12100</v>
+        <v>12600</v>
       </c>
       <c r="H41" s="3">
-        <v>10000</v>
+        <v>10400</v>
       </c>
       <c r="I41" s="3">
-        <v>13000</v>
+        <v>13600</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1905,22 +1905,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>56200</v>
+        <v>70000</v>
       </c>
       <c r="E43" s="3">
-        <v>44200</v>
+        <v>46000</v>
       </c>
       <c r="F43" s="3">
-        <v>46100</v>
+        <v>48000</v>
       </c>
       <c r="G43" s="3">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="H43" s="3">
-        <v>12400</v>
+        <v>12900</v>
       </c>
       <c r="I43" s="3">
-        <v>9500</v>
+        <v>9800</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1944,22 +1944,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>119300</v>
+        <v>124700</v>
       </c>
       <c r="E44" s="3">
-        <v>75700</v>
+        <v>78700</v>
       </c>
       <c r="F44" s="3">
-        <v>72000</v>
+        <v>74800</v>
       </c>
       <c r="G44" s="3">
-        <v>19500</v>
+        <v>20300</v>
       </c>
       <c r="H44" s="3">
-        <v>17100</v>
+        <v>17700</v>
       </c>
       <c r="I44" s="3">
-        <v>8000</v>
+        <v>8300</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1983,22 +1983,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>35900</v>
+        <v>13300</v>
       </c>
       <c r="E45" s="3">
-        <v>9900</v>
+        <v>10200</v>
       </c>
       <c r="F45" s="3">
-        <v>9400</v>
+        <v>9800</v>
       </c>
       <c r="G45" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="H45" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="I45" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -2022,22 +2022,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>250100</v>
+        <v>255800</v>
       </c>
       <c r="E46" s="3">
-        <v>196100</v>
+        <v>203900</v>
       </c>
       <c r="F46" s="3">
-        <v>164200</v>
+        <v>170700</v>
       </c>
       <c r="G46" s="3">
-        <v>49800</v>
+        <v>51700</v>
       </c>
       <c r="H46" s="3">
-        <v>41200</v>
+        <v>42900</v>
       </c>
       <c r="I46" s="3">
-        <v>31600</v>
+        <v>32900</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2100,22 +2100,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>184500</v>
+        <v>191900</v>
       </c>
       <c r="E48" s="3">
-        <v>61400</v>
+        <v>63800</v>
       </c>
       <c r="F48" s="3">
-        <v>46100</v>
+        <v>47900</v>
       </c>
       <c r="G48" s="3">
-        <v>13100</v>
+        <v>13600</v>
       </c>
       <c r="H48" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="I48" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2139,22 +2139,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>183500</v>
+        <v>196400</v>
       </c>
       <c r="E49" s="3">
-        <v>41800</v>
+        <v>43500</v>
       </c>
       <c r="F49" s="3">
-        <v>37700</v>
+        <v>39200</v>
       </c>
       <c r="G49" s="3">
-        <v>37200</v>
+        <v>38700</v>
       </c>
       <c r="H49" s="3">
-        <v>37300</v>
+        <v>38800</v>
       </c>
       <c r="I49" s="3">
-        <v>36700</v>
+        <v>38100</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2256,22 +2256,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>24500</v>
+        <v>21500</v>
       </c>
       <c r="E52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F52" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="G52" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H52" s="3">
         <v>1400</v>
       </c>
       <c r="I52" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2334,22 +2334,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>642800</v>
+        <v>665600</v>
       </c>
       <c r="E54" s="3">
-        <v>299700</v>
+        <v>311500</v>
       </c>
       <c r="F54" s="3">
-        <v>249300</v>
+        <v>259200</v>
       </c>
       <c r="G54" s="3">
-        <v>101100</v>
+        <v>105100</v>
       </c>
       <c r="H54" s="3">
-        <v>82300</v>
+        <v>85600</v>
       </c>
       <c r="I54" s="3">
-        <v>72700</v>
+        <v>75600</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2407,22 +2407,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>83000</v>
+        <v>86300</v>
       </c>
       <c r="E57" s="3">
-        <v>112100</v>
+        <v>116600</v>
       </c>
       <c r="F57" s="3">
-        <v>117400</v>
+        <v>122100</v>
       </c>
       <c r="G57" s="3">
-        <v>29900</v>
+        <v>31100</v>
       </c>
       <c r="H57" s="3">
-        <v>25200</v>
+        <v>26100</v>
       </c>
       <c r="I57" s="3">
-        <v>11900</v>
+        <v>12400</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2446,22 +2446,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>25000</v>
+        <v>18500</v>
       </c>
       <c r="E58" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="F58" s="3">
-        <v>6400</v>
+        <v>6700</v>
       </c>
       <c r="G58" s="3">
-        <v>9200</v>
+        <v>9500</v>
       </c>
       <c r="H58" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="I58" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2485,22 +2485,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>75400</v>
+        <v>78600</v>
       </c>
       <c r="E59" s="3">
-        <v>22700</v>
+        <v>23600</v>
       </c>
       <c r="F59" s="3">
-        <v>38100</v>
+        <v>39700</v>
       </c>
       <c r="G59" s="3">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="H59" s="3">
-        <v>11200</v>
+        <v>11700</v>
       </c>
       <c r="I59" s="3">
-        <v>10200</v>
+        <v>10600</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2527,19 +2527,19 @@
         <v>183400</v>
       </c>
       <c r="E60" s="3">
-        <v>136700</v>
+        <v>142200</v>
       </c>
       <c r="F60" s="3">
-        <v>162000</v>
+        <v>168400</v>
       </c>
       <c r="G60" s="3">
-        <v>49600</v>
+        <v>51600</v>
       </c>
       <c r="H60" s="3">
-        <v>41500</v>
+        <v>43100</v>
       </c>
       <c r="I60" s="3">
-        <v>24700</v>
+        <v>25700</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2563,22 +2563,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>338900</v>
+        <v>359700</v>
       </c>
       <c r="E61" s="3">
-        <v>84400</v>
+        <v>87700</v>
       </c>
       <c r="F61" s="3">
-        <v>30500</v>
+        <v>31800</v>
       </c>
       <c r="G61" s="3">
-        <v>30500</v>
+        <v>31700</v>
       </c>
       <c r="H61" s="3">
-        <v>31800</v>
+        <v>33100</v>
       </c>
       <c r="I61" s="3">
-        <v>33400</v>
+        <v>34700</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2602,22 +2602,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>60300</v>
+        <v>58000</v>
       </c>
       <c r="E62" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F62" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G62" s="3">
+        <v>5700</v>
+      </c>
+      <c r="H62" s="3">
         <v>4700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="I62" s="3">
         <v>4700</v>
-      </c>
-      <c r="G62" s="3">
-        <v>5500</v>
-      </c>
-      <c r="H62" s="3">
-        <v>4500</v>
-      </c>
-      <c r="I62" s="3">
-        <v>4500</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2758,22 +2758,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>582600</v>
+        <v>601200</v>
       </c>
       <c r="E66" s="3">
-        <v>226600</v>
+        <v>235600</v>
       </c>
       <c r="F66" s="3">
-        <v>197300</v>
+        <v>205100</v>
       </c>
       <c r="G66" s="3">
-        <v>85600</v>
+        <v>89000</v>
       </c>
       <c r="H66" s="3">
-        <v>77800</v>
+        <v>80900</v>
       </c>
       <c r="I66" s="3">
-        <v>62600</v>
+        <v>65100</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2969,17 +2969,17 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>45800</v>
       </c>
       <c r="E72" s="3">
-        <v>55900</v>
+        <v>58100</v>
       </c>
       <c r="F72" s="3">
-        <v>-15200</v>
+        <v>-15800</v>
       </c>
       <c r="G72" s="3">
-        <v>12300</v>
+        <v>12800</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -3126,22 +3126,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>60200</v>
+        <v>64400</v>
       </c>
       <c r="E76" s="3">
-        <v>73000</v>
+        <v>75900</v>
       </c>
       <c r="F76" s="3">
-        <v>52100</v>
+        <v>54100</v>
       </c>
       <c r="G76" s="3">
-        <v>15500</v>
+        <v>16100</v>
       </c>
       <c r="H76" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="I76" s="3">
-        <v>10100</v>
+        <v>10500</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3248,22 +3248,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>41500</v>
+        <v>51200</v>
       </c>
       <c r="E81" s="3">
-        <v>101900</v>
+        <v>106000</v>
       </c>
       <c r="F81" s="3">
-        <v>19100</v>
+        <v>19900</v>
       </c>
       <c r="G81" s="3">
-        <v>26700</v>
+        <v>27700</v>
       </c>
       <c r="H81" s="3">
-        <v>16900</v>
+        <v>17600</v>
       </c>
       <c r="I81" s="3">
-        <v>11700</v>
+        <v>12200</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3304,16 +3304,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>20200</v>
+        <v>16900</v>
       </c>
       <c r="E83" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="F83" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="G83" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="H83" s="3">
         <v>1500</v>
@@ -3538,22 +3538,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>71500</v>
+        <v>82800</v>
       </c>
       <c r="E89" s="3">
-        <v>82800</v>
+        <v>86100</v>
       </c>
       <c r="F89" s="3">
-        <v>102900</v>
+        <v>107000</v>
       </c>
       <c r="G89" s="3">
-        <v>34200</v>
+        <v>35600</v>
       </c>
       <c r="H89" s="3">
-        <v>19100</v>
+        <v>19900</v>
       </c>
       <c r="I89" s="3">
-        <v>21100</v>
+        <v>21900</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3594,22 +3594,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9600</v>
+        <v>-10300</v>
       </c>
       <c r="E91" s="3">
-        <v>-22700</v>
+        <v>-23600</v>
       </c>
       <c r="F91" s="3">
-        <v>-34900</v>
+        <v>-36300</v>
       </c>
       <c r="G91" s="3">
-        <v>-10300</v>
+        <v>-10700</v>
       </c>
       <c r="H91" s="3">
         <v>-1200</v>
       </c>
       <c r="I91" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3711,22 +3711,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-271700</v>
+        <v>-283400</v>
       </c>
       <c r="E94" s="3">
-        <v>-18100</v>
+        <v>-18800</v>
       </c>
       <c r="F94" s="3">
-        <v>-35700</v>
+        <v>-37100</v>
       </c>
       <c r="G94" s="3">
-        <v>-9900</v>
+        <v>-10300</v>
       </c>
       <c r="H94" s="3">
         <v>800</v>
       </c>
       <c r="I94" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3767,19 +3767,19 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-53600</v>
+        <v>-55800</v>
       </c>
       <c r="E96" s="3">
-        <v>-79100</v>
+        <v>-82200</v>
       </c>
       <c r="F96" s="3">
-        <v>-46900</v>
+        <v>-48700</v>
       </c>
       <c r="G96" s="3">
-        <v>-19400</v>
+        <v>-20100</v>
       </c>
       <c r="H96" s="3">
-        <v>-13300</v>
+        <v>-13800</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3923,22 +3923,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>172600</v>
+        <v>179500</v>
       </c>
       <c r="E100" s="3">
-        <v>-35000</v>
+        <v>-36400</v>
       </c>
       <c r="F100" s="3">
-        <v>-42600</v>
+        <v>-44300</v>
       </c>
       <c r="G100" s="3">
-        <v>-22200</v>
+        <v>-23100</v>
       </c>
       <c r="H100" s="3">
-        <v>-22900</v>
+        <v>-23800</v>
       </c>
       <c r="I100" s="3">
-        <v>-17900</v>
+        <v>-18600</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -4001,19 +4001,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-27600</v>
+        <v>-21100</v>
       </c>
       <c r="E102" s="3">
-        <v>29700</v>
+        <v>30900</v>
       </c>
       <c r="F102" s="3">
-        <v>24600</v>
+        <v>25600</v>
       </c>
       <c r="G102" s="3">
         <v>2100</v>
       </c>
       <c r="H102" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="I102" s="3">
         <v>1400</v>

--- a/AAII_Financials/Yearly/BWMX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BWMX_YR_FIN.xlsx
@@ -726,22 +726,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>675800</v>
+        <v>668100</v>
       </c>
       <c r="E8" s="3">
-        <v>589600</v>
+        <v>582900</v>
       </c>
       <c r="F8" s="3">
-        <v>426400</v>
+        <v>421500</v>
       </c>
       <c r="G8" s="3">
-        <v>181200</v>
+        <v>179100</v>
       </c>
       <c r="H8" s="3">
-        <v>136100</v>
+        <v>134500</v>
       </c>
       <c r="I8" s="3">
-        <v>85100</v>
+        <v>84200</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -765,22 +765,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>210200</v>
+        <v>207800</v>
       </c>
       <c r="E9" s="3">
-        <v>258400</v>
+        <v>255400</v>
       </c>
       <c r="F9" s="3">
-        <v>193300</v>
+        <v>191100</v>
       </c>
       <c r="G9" s="3">
-        <v>75200</v>
+        <v>74400</v>
       </c>
       <c r="H9" s="3">
-        <v>56300</v>
+        <v>55600</v>
       </c>
       <c r="I9" s="3">
-        <v>32800</v>
+        <v>32400</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -804,22 +804,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>465600</v>
+        <v>460300</v>
       </c>
       <c r="E10" s="3">
-        <v>331300</v>
+        <v>327500</v>
       </c>
       <c r="F10" s="3">
-        <v>233100</v>
+        <v>230500</v>
       </c>
       <c r="G10" s="3">
-        <v>105900</v>
+        <v>104700</v>
       </c>
       <c r="H10" s="3">
-        <v>79800</v>
+        <v>78900</v>
       </c>
       <c r="I10" s="3">
-        <v>52400</v>
+        <v>51800</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -938,13 +938,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>15800</v>
+        <v>15700</v>
       </c>
       <c r="E14" s="3">
-        <v>11700</v>
+        <v>11500</v>
       </c>
       <c r="F14" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="G14" s="3">
         <v>1300</v>
@@ -977,10 +977,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="E15" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="F15" s="3">
         <v>1000</v>
@@ -1030,22 +1030,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>555400</v>
+        <v>549100</v>
       </c>
       <c r="E17" s="3">
-        <v>433100</v>
+        <v>428200</v>
       </c>
       <c r="F17" s="3">
-        <v>301900</v>
+        <v>298400</v>
       </c>
       <c r="G17" s="3">
-        <v>133500</v>
+        <v>131900</v>
       </c>
       <c r="H17" s="3">
-        <v>103700</v>
+        <v>102500</v>
       </c>
       <c r="I17" s="3">
-        <v>65700</v>
+        <v>65000</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1069,22 +1069,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>120400</v>
+        <v>119000</v>
       </c>
       <c r="E18" s="3">
-        <v>156500</v>
+        <v>154700</v>
       </c>
       <c r="F18" s="3">
-        <v>124500</v>
+        <v>123100</v>
       </c>
       <c r="G18" s="3">
-        <v>47700</v>
+        <v>47200</v>
       </c>
       <c r="H18" s="3">
-        <v>32400</v>
+        <v>32000</v>
       </c>
       <c r="I18" s="3">
-        <v>19400</v>
+        <v>19200</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1125,13 +1125,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-7100</v>
+        <v>-7000</v>
       </c>
       <c r="E20" s="3">
         <v>2100</v>
       </c>
       <c r="F20" s="3">
-        <v>-68100</v>
+        <v>-67300</v>
       </c>
       <c r="G20" s="3">
         <v>-1300</v>
@@ -1140,7 +1140,7 @@
         <v>-900</v>
       </c>
       <c r="I20" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1164,22 +1164,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>130300</v>
+        <v>128700</v>
       </c>
       <c r="E21" s="3">
-        <v>163500</v>
+        <v>161600</v>
       </c>
       <c r="F21" s="3">
-        <v>59000</v>
+        <v>58300</v>
       </c>
       <c r="G21" s="3">
-        <v>48700</v>
+        <v>48100</v>
       </c>
       <c r="H21" s="3">
-        <v>33000</v>
+        <v>32600</v>
       </c>
       <c r="I21" s="3">
-        <v>26300</v>
+        <v>25900</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1203,10 +1203,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>31900</v>
+        <v>31500</v>
       </c>
       <c r="E22" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="F22" s="3">
         <v>4700</v>
@@ -1215,7 +1215,7 @@
         <v>5000</v>
       </c>
       <c r="H22" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="I22" s="3">
         <v>6900</v>
@@ -1242,22 +1242,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>81500</v>
+        <v>80500</v>
       </c>
       <c r="E23" s="3">
-        <v>154200</v>
+        <v>152400</v>
       </c>
       <c r="F23" s="3">
-        <v>51700</v>
+        <v>51200</v>
       </c>
       <c r="G23" s="3">
-        <v>41400</v>
+        <v>40900</v>
       </c>
       <c r="H23" s="3">
-        <v>26400</v>
+        <v>26100</v>
       </c>
       <c r="I23" s="3">
-        <v>17900</v>
+        <v>17700</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1281,22 +1281,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>30400</v>
+        <v>30000</v>
       </c>
       <c r="E24" s="3">
-        <v>48400</v>
+        <v>47900</v>
       </c>
       <c r="F24" s="3">
-        <v>31900</v>
+        <v>31500</v>
       </c>
       <c r="G24" s="3">
-        <v>13700</v>
+        <v>13500</v>
       </c>
       <c r="H24" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="I24" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1359,22 +1359,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>51100</v>
+        <v>50500</v>
       </c>
       <c r="E26" s="3">
-        <v>105800</v>
+        <v>104600</v>
       </c>
       <c r="F26" s="3">
-        <v>19900</v>
+        <v>19600</v>
       </c>
       <c r="G26" s="3">
-        <v>27700</v>
+        <v>27400</v>
       </c>
       <c r="H26" s="3">
-        <v>17600</v>
+        <v>17400</v>
       </c>
       <c r="I26" s="3">
-        <v>12200</v>
+        <v>12100</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1398,22 +1398,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>51200</v>
+        <v>50700</v>
       </c>
       <c r="E27" s="3">
-        <v>106000</v>
+        <v>104800</v>
       </c>
       <c r="F27" s="3">
-        <v>19900</v>
+        <v>19600</v>
       </c>
       <c r="G27" s="3">
-        <v>27700</v>
+        <v>27400</v>
       </c>
       <c r="H27" s="3">
-        <v>17600</v>
+        <v>17400</v>
       </c>
       <c r="I27" s="3">
-        <v>12200</v>
+        <v>12100</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1593,13 +1593,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="E32" s="3">
         <v>-2100</v>
       </c>
       <c r="F32" s="3">
-        <v>68100</v>
+        <v>67300</v>
       </c>
       <c r="G32" s="3">
         <v>1300</v>
@@ -1608,7 +1608,7 @@
         <v>900</v>
       </c>
       <c r="I32" s="3">
-        <v>-5400</v>
+        <v>-5300</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1632,22 +1632,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>51200</v>
+        <v>50700</v>
       </c>
       <c r="E33" s="3">
-        <v>106000</v>
+        <v>104800</v>
       </c>
       <c r="F33" s="3">
-        <v>19900</v>
+        <v>19600</v>
       </c>
       <c r="G33" s="3">
-        <v>27700</v>
+        <v>27400</v>
       </c>
       <c r="H33" s="3">
-        <v>17600</v>
+        <v>17400</v>
       </c>
       <c r="I33" s="3">
-        <v>12200</v>
+        <v>12100</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1710,22 +1710,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>51200</v>
+        <v>50700</v>
       </c>
       <c r="E35" s="3">
-        <v>106000</v>
+        <v>104800</v>
       </c>
       <c r="F35" s="3">
-        <v>19900</v>
+        <v>19600</v>
       </c>
       <c r="G35" s="3">
-        <v>27700</v>
+        <v>27400</v>
       </c>
       <c r="H35" s="3">
-        <v>17600</v>
+        <v>17400</v>
       </c>
       <c r="I35" s="3">
-        <v>12200</v>
+        <v>12100</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1827,22 +1827,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>47900</v>
+        <v>47400</v>
       </c>
       <c r="E41" s="3">
-        <v>69000</v>
+        <v>68200</v>
       </c>
       <c r="F41" s="3">
-        <v>38200</v>
+        <v>37700</v>
       </c>
       <c r="G41" s="3">
-        <v>12600</v>
+        <v>12400</v>
       </c>
       <c r="H41" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="I41" s="3">
-        <v>13600</v>
+        <v>13400</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1905,22 +1905,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>70000</v>
+        <v>69200</v>
       </c>
       <c r="E43" s="3">
-        <v>46000</v>
+        <v>45500</v>
       </c>
       <c r="F43" s="3">
-        <v>48000</v>
+        <v>47400</v>
       </c>
       <c r="G43" s="3">
-        <v>15000</v>
+        <v>14800</v>
       </c>
       <c r="H43" s="3">
-        <v>12900</v>
+        <v>12800</v>
       </c>
       <c r="I43" s="3">
-        <v>9800</v>
+        <v>9700</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1944,22 +1944,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>124700</v>
+        <v>123200</v>
       </c>
       <c r="E44" s="3">
-        <v>78700</v>
+        <v>77800</v>
       </c>
       <c r="F44" s="3">
-        <v>74800</v>
+        <v>74000</v>
       </c>
       <c r="G44" s="3">
-        <v>20300</v>
+        <v>20100</v>
       </c>
       <c r="H44" s="3">
-        <v>17700</v>
+        <v>17500</v>
       </c>
       <c r="I44" s="3">
-        <v>8300</v>
+        <v>8200</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1983,13 +1983,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>13300</v>
+        <v>13100</v>
       </c>
       <c r="E45" s="3">
-        <v>10200</v>
+        <v>10100</v>
       </c>
       <c r="F45" s="3">
-        <v>9800</v>
+        <v>9700</v>
       </c>
       <c r="G45" s="3">
         <v>3900</v>
@@ -1998,7 +1998,7 @@
         <v>1800</v>
       </c>
       <c r="I45" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -2022,22 +2022,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>255800</v>
+        <v>252900</v>
       </c>
       <c r="E46" s="3">
-        <v>203900</v>
+        <v>201600</v>
       </c>
       <c r="F46" s="3">
-        <v>170700</v>
+        <v>168800</v>
       </c>
       <c r="G46" s="3">
-        <v>51700</v>
+        <v>51100</v>
       </c>
       <c r="H46" s="3">
-        <v>42900</v>
+        <v>42400</v>
       </c>
       <c r="I46" s="3">
-        <v>32900</v>
+        <v>32500</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2100,22 +2100,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>191900</v>
+        <v>189700</v>
       </c>
       <c r="E48" s="3">
-        <v>63800</v>
+        <v>63100</v>
       </c>
       <c r="F48" s="3">
-        <v>47900</v>
+        <v>47400</v>
       </c>
       <c r="G48" s="3">
-        <v>13600</v>
+        <v>13400</v>
       </c>
       <c r="H48" s="3">
         <v>2500</v>
       </c>
       <c r="I48" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2139,22 +2139,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>196400</v>
+        <v>194100</v>
       </c>
       <c r="E49" s="3">
-        <v>43500</v>
+        <v>43000</v>
       </c>
       <c r="F49" s="3">
-        <v>39200</v>
+        <v>38800</v>
       </c>
       <c r="G49" s="3">
-        <v>38700</v>
+        <v>38300</v>
       </c>
       <c r="H49" s="3">
-        <v>38800</v>
+        <v>38400</v>
       </c>
       <c r="I49" s="3">
-        <v>38100</v>
+        <v>37700</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2256,10 +2256,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>21500</v>
+        <v>21200</v>
       </c>
       <c r="E52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F52" s="3">
         <v>1400</v>
@@ -2271,7 +2271,7 @@
         <v>1400</v>
       </c>
       <c r="I52" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2334,22 +2334,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>665600</v>
+        <v>658000</v>
       </c>
       <c r="E54" s="3">
-        <v>311500</v>
+        <v>308000</v>
       </c>
       <c r="F54" s="3">
-        <v>259200</v>
+        <v>256300</v>
       </c>
       <c r="G54" s="3">
-        <v>105100</v>
+        <v>103900</v>
       </c>
       <c r="H54" s="3">
-        <v>85600</v>
+        <v>84600</v>
       </c>
       <c r="I54" s="3">
-        <v>75600</v>
+        <v>74700</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2407,22 +2407,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>86300</v>
+        <v>85300</v>
       </c>
       <c r="E57" s="3">
-        <v>116600</v>
+        <v>115200</v>
       </c>
       <c r="F57" s="3">
-        <v>122100</v>
+        <v>120700</v>
       </c>
       <c r="G57" s="3">
-        <v>31100</v>
+        <v>30700</v>
       </c>
       <c r="H57" s="3">
-        <v>26100</v>
+        <v>25900</v>
       </c>
       <c r="I57" s="3">
-        <v>12400</v>
+        <v>12300</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2446,16 +2446,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>18500</v>
+        <v>18300</v>
       </c>
       <c r="E58" s="3">
         <v>2000</v>
       </c>
       <c r="F58" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="G58" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="H58" s="3">
         <v>5300</v>
@@ -2485,22 +2485,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>78600</v>
+        <v>77700</v>
       </c>
       <c r="E59" s="3">
-        <v>23600</v>
+        <v>23300</v>
       </c>
       <c r="F59" s="3">
-        <v>39700</v>
+        <v>39200</v>
       </c>
       <c r="G59" s="3">
-        <v>11000</v>
+        <v>10800</v>
       </c>
       <c r="H59" s="3">
-        <v>11700</v>
+        <v>11500</v>
       </c>
       <c r="I59" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2524,22 +2524,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>183400</v>
+        <v>181300</v>
       </c>
       <c r="E60" s="3">
-        <v>142200</v>
+        <v>140500</v>
       </c>
       <c r="F60" s="3">
-        <v>168400</v>
+        <v>166500</v>
       </c>
       <c r="G60" s="3">
-        <v>51600</v>
+        <v>51000</v>
       </c>
       <c r="H60" s="3">
-        <v>43100</v>
+        <v>42600</v>
       </c>
       <c r="I60" s="3">
-        <v>25700</v>
+        <v>25400</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2563,22 +2563,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>359700</v>
+        <v>355600</v>
       </c>
       <c r="E61" s="3">
-        <v>87700</v>
+        <v>86700</v>
       </c>
       <c r="F61" s="3">
-        <v>31800</v>
+        <v>31400</v>
       </c>
       <c r="G61" s="3">
-        <v>31700</v>
+        <v>31400</v>
       </c>
       <c r="H61" s="3">
-        <v>33100</v>
+        <v>32700</v>
       </c>
       <c r="I61" s="3">
-        <v>34700</v>
+        <v>34300</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2602,16 +2602,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>58000</v>
+        <v>57300</v>
       </c>
       <c r="E62" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="F62" s="3">
         <v>4900</v>
       </c>
       <c r="G62" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="H62" s="3">
         <v>4700</v>
@@ -2758,22 +2758,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>601200</v>
+        <v>594300</v>
       </c>
       <c r="E66" s="3">
-        <v>235600</v>
+        <v>232900</v>
       </c>
       <c r="F66" s="3">
-        <v>205100</v>
+        <v>202700</v>
       </c>
       <c r="G66" s="3">
-        <v>89000</v>
+        <v>88000</v>
       </c>
       <c r="H66" s="3">
-        <v>80900</v>
+        <v>80000</v>
       </c>
       <c r="I66" s="3">
-        <v>65100</v>
+        <v>64400</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2970,16 +2970,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>45800</v>
+        <v>45300</v>
       </c>
       <c r="E72" s="3">
-        <v>58100</v>
+        <v>57500</v>
       </c>
       <c r="F72" s="3">
-        <v>-15800</v>
+        <v>-15600</v>
       </c>
       <c r="G72" s="3">
-        <v>12800</v>
+        <v>12700</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -3126,22 +3126,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>64400</v>
+        <v>63600</v>
       </c>
       <c r="E76" s="3">
-        <v>75900</v>
+        <v>75000</v>
       </c>
       <c r="F76" s="3">
-        <v>54100</v>
+        <v>53500</v>
       </c>
       <c r="G76" s="3">
-        <v>16100</v>
+        <v>15900</v>
       </c>
       <c r="H76" s="3">
         <v>4700</v>
       </c>
       <c r="I76" s="3">
-        <v>10500</v>
+        <v>10400</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3248,22 +3248,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>51200</v>
+        <v>50700</v>
       </c>
       <c r="E81" s="3">
-        <v>106000</v>
+        <v>104800</v>
       </c>
       <c r="F81" s="3">
-        <v>19900</v>
+        <v>19600</v>
       </c>
       <c r="G81" s="3">
-        <v>27700</v>
+        <v>27400</v>
       </c>
       <c r="H81" s="3">
-        <v>17600</v>
+        <v>17400</v>
       </c>
       <c r="I81" s="3">
-        <v>12200</v>
+        <v>12100</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3304,16 +3304,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>16900</v>
+        <v>16700</v>
       </c>
       <c r="E83" s="3">
         <v>4800</v>
       </c>
       <c r="F83" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="G83" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="H83" s="3">
         <v>1500</v>
@@ -3538,22 +3538,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>82800</v>
+        <v>81800</v>
       </c>
       <c r="E89" s="3">
-        <v>86100</v>
+        <v>85100</v>
       </c>
       <c r="F89" s="3">
-        <v>107000</v>
+        <v>105800</v>
       </c>
       <c r="G89" s="3">
-        <v>35600</v>
+        <v>35200</v>
       </c>
       <c r="H89" s="3">
-        <v>19900</v>
+        <v>19600</v>
       </c>
       <c r="I89" s="3">
-        <v>21900</v>
+        <v>21600</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3594,16 +3594,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-10300</v>
+        <v>-10200</v>
       </c>
       <c r="E91" s="3">
-        <v>-23600</v>
+        <v>-23300</v>
       </c>
       <c r="F91" s="3">
-        <v>-36300</v>
+        <v>-35900</v>
       </c>
       <c r="G91" s="3">
-        <v>-10700</v>
+        <v>-10600</v>
       </c>
       <c r="H91" s="3">
         <v>-1200</v>
@@ -3711,22 +3711,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-283400</v>
+        <v>-280200</v>
       </c>
       <c r="E94" s="3">
-        <v>-18800</v>
+        <v>-18600</v>
       </c>
       <c r="F94" s="3">
-        <v>-37100</v>
+        <v>-36700</v>
       </c>
       <c r="G94" s="3">
-        <v>-10300</v>
+        <v>-10200</v>
       </c>
       <c r="H94" s="3">
         <v>800</v>
       </c>
       <c r="I94" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3767,19 +3767,19 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-55800</v>
+        <v>-55100</v>
       </c>
       <c r="E96" s="3">
-        <v>-82200</v>
+        <v>-81300</v>
       </c>
       <c r="F96" s="3">
-        <v>-48700</v>
+        <v>-48200</v>
       </c>
       <c r="G96" s="3">
-        <v>-20100</v>
+        <v>-19900</v>
       </c>
       <c r="H96" s="3">
-        <v>-13800</v>
+        <v>-13700</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3923,22 +3923,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>179500</v>
+        <v>177400</v>
       </c>
       <c r="E100" s="3">
-        <v>-36400</v>
+        <v>-36000</v>
       </c>
       <c r="F100" s="3">
-        <v>-44300</v>
+        <v>-43800</v>
       </c>
       <c r="G100" s="3">
-        <v>-23100</v>
+        <v>-22800</v>
       </c>
       <c r="H100" s="3">
-        <v>-23800</v>
+        <v>-23500</v>
       </c>
       <c r="I100" s="3">
-        <v>-18600</v>
+        <v>-18400</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -4001,13 +4001,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-21100</v>
+        <v>-20900</v>
       </c>
       <c r="E102" s="3">
-        <v>30900</v>
+        <v>30500</v>
       </c>
       <c r="F102" s="3">
-        <v>25600</v>
+        <v>25300</v>
       </c>
       <c r="G102" s="3">
         <v>2100</v>
